--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -521,16 +521,16 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -541,22 +541,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.172048531619193</v>
+        <v>0.1307914655591643</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07967589201471623</v>
+        <v>0.03803333090703551</v>
       </c>
     </row>
     <row r="3">
@@ -572,16 +572,16 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -592,22 +592,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1722841452432544</v>
+        <v>0.09471829939890986</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07957633092460462</v>
+        <v>0.001287033831225857</v>
       </c>
     </row>
     <row r="4">
@@ -623,16 +623,16 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -643,22 +643,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1721533262180407</v>
+        <v>0.1399105523865085</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07969589666337798</v>
+        <v>0.04715008457674778</v>
       </c>
     </row>
     <row r="5">
@@ -674,16 +674,16 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -694,22 +694,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1723876968743279</v>
+        <v>0.103837386226254</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07959514384588925</v>
+        <v>0.01040378750093812</v>
       </c>
     </row>
     <row r="6">
@@ -725,16 +725,16 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -745,22 +745,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1718816277592048</v>
+        <v>0.149935910069137</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07974069824904684</v>
+        <v>0.05758500209529054</v>
       </c>
     </row>
     <row r="7">
@@ -776,16 +776,16 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -796,22 +796,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1718545408704864</v>
+        <v>0.1474501495413574</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07973499573900343</v>
+        <v>0.05509987756004597</v>
       </c>
     </row>
     <row r="8">
@@ -827,16 +827,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -847,22 +847,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1729314971348111</v>
+        <v>0.208918762698781</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07980270320603913</v>
+        <v>0.1161406388412595</v>
       </c>
     </row>
     <row r="9">
@@ -878,16 +878,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -898,22 +898,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1731586323804531</v>
+        <v>0.1735976383978135</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07969851737016864</v>
+        <v>0.08014619121158896</v>
       </c>
     </row>
     <row r="10">
@@ -929,16 +929,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -949,22 +949,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M10" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1725881645828134</v>
+        <v>0.1774159957433393</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07976366105092629</v>
+        <v>0.0846459320043956</v>
       </c>
     </row>
     <row r="11">
@@ -980,16 +980,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -1000,22 +1000,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N11" t="n">
-        <v>0.172815259378041</v>
+        <v>0.1420948714423718</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07965921212848545</v>
+        <v>0.04865148437472507</v>
       </c>
     </row>
     <row r="12">
@@ -1031,16 +1031,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003698249421743867</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003887980573607138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1051,22 +1051,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J12" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K12" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L12" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M12" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1718994768876947</v>
+        <v>0.1500279292970601</v>
       </c>
       <c r="O12" t="n">
-        <v>0.07974382189960345</v>
+        <v>0.05767699777969802</v>
       </c>
     </row>
     <row r="13">
@@ -1082,16 +1082,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003695012513233563</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003887795560673642</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1102,22 +1102,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J13" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K13" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1731339972296917</v>
+        <v>0.2628488682000618</v>
       </c>
       <c r="O13" t="n">
-        <v>0.07990079528066965</v>
+        <v>0.1704690709596694</v>
       </c>
     </row>
     <row r="14">
@@ -1133,16 +1133,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003697834350326549</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003890046928887182</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1153,22 +1153,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L14" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N14" t="n">
-        <v>0.17212485006987</v>
+        <v>0.1689479175594861</v>
       </c>
       <c r="O14" t="n">
-        <v>0.07978668824261864</v>
+        <v>0.0765921452816567</v>
       </c>
     </row>
     <row r="15">
@@ -1184,16 +1184,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D15" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E15" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1204,22 +1204,22 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K15" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N15" t="n">
-        <v>0.1724941742782387</v>
+        <v>3.878320857128468</v>
       </c>
       <c r="O15" t="n">
-        <v>0.07976394372929441</v>
+        <v>3.855492206326193</v>
       </c>
     </row>
     <row r="16">
@@ -1235,16 +1235,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E16" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1255,22 +1255,22 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="J16" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1725700259358239</v>
+        <v>3.450025017791472</v>
       </c>
       <c r="O16" t="n">
-        <v>0.07975602759078546</v>
+        <v>3.419031802980566</v>
       </c>
     </row>
     <row r="17">
@@ -1286,16 +1286,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1306,22 +1306,22 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K17" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1722157481117525</v>
+        <v>2.367228711315432</v>
       </c>
       <c r="O17" t="n">
-        <v>0.07978936844455142</v>
+        <v>2.316202845023934</v>
       </c>
     </row>
     <row r="18">
@@ -1337,16 +1337,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1357,22 +1357,22 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="J18" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1722916271405752</v>
+        <v>1.938932871978435</v>
       </c>
       <c r="O18" t="n">
-        <v>0.07978142349950271</v>
+        <v>1.879742441678306</v>
       </c>
     </row>
     <row r="19">
@@ -1388,16 +1388,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.003698249421743867</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003887980573607138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1408,22 +1408,22 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="J19" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="L19" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="M19" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1717648212008404</v>
+        <v>0.1543497932297871</v>
       </c>
       <c r="O19" t="n">
-        <v>0.07983003354935109</v>
+        <v>0.0620812490052128</v>
       </c>
     </row>
     <row r="20">
@@ -1439,16 +1439,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.003698249421743867</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003887980573607138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1459,22 +1459,22 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="J20" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="K20" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="L20" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="M20" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1717456846298882</v>
+        <v>0.2710984229767531</v>
       </c>
       <c r="O20" t="n">
-        <v>0.07983205596320619</v>
+        <v>0.1810554470928958</v>
       </c>
     </row>
     <row r="21">
@@ -1490,16 +1490,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D21" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E21" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003695012513233563</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0003887795560673642</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -1510,22 +1510,22 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="J21" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="K21" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="L21" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="N21" t="n">
-        <v>0.1727510385086155</v>
+        <v>5.566027913463264</v>
       </c>
       <c r="O21" t="n">
-        <v>0.07974050966996088</v>
+        <v>5.574742128322804</v>
       </c>
     </row>
     <row r="22">
@@ -1541,16 +1541,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D22" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E22" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003695012513233563</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0003887795560673642</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
@@ -1561,22 +1561,22 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="J22" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="K22" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="L22" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="M22" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="N22" t="n">
-        <v>0.172731924990691</v>
+        <v>5.68277654321023</v>
       </c>
       <c r="O22" t="n">
-        <v>0.07974250494350087</v>
+        <v>5.693716326410486</v>
       </c>
     </row>
     <row r="23">
@@ -1592,16 +1592,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D23" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003697834350326549</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0003890046928887182</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -1612,22 +1612,22 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="J23" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="K23" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="L23" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="N23" t="n">
-        <v>0.1719323537489611</v>
+        <v>1.06188422354395</v>
       </c>
       <c r="O23" t="n">
-        <v>0.07981522087392331</v>
+        <v>0.9865504135553796</v>
       </c>
     </row>
     <row r="24">
@@ -1643,16 +1643,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E24" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003697834350326549</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0003890046928887182</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -1663,22 +1663,22 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="J24" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="K24" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="L24" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="N24" t="n">
-        <v>0.171913223087983</v>
+        <v>1.178632853290916</v>
       </c>
       <c r="O24" t="n">
-        <v>0.07981724072288554</v>
+        <v>1.105524611643063</v>
       </c>
     </row>
   </sheetData>
@@ -1790,16 +1790,16 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -1810,22 +1810,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.172048531619193</v>
+        <v>0.1307914655591643</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07967589201471623</v>
+        <v>0.03803333090703551</v>
       </c>
     </row>
     <row r="3">
@@ -1841,16 +1841,16 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1861,22 +1861,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1722841452432544</v>
+        <v>0.09471829939890986</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07957633092460462</v>
+        <v>0.001287033831225857</v>
       </c>
     </row>
     <row r="4">
@@ -1892,16 +1892,16 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1912,22 +1912,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1721533262180407</v>
+        <v>0.1399105523865085</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07969589666337798</v>
+        <v>0.04715008457674778</v>
       </c>
     </row>
     <row r="5">
@@ -1943,16 +1943,16 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1963,22 +1963,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1723876968743279</v>
+        <v>0.103837386226254</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07959514384588925</v>
+        <v>0.01040378750093812</v>
       </c>
     </row>
     <row r="6">
@@ -1994,16 +1994,16 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2014,22 +2014,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1718816277592048</v>
+        <v>0.149935910069137</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07974069824904684</v>
+        <v>0.05758500209529054</v>
       </c>
     </row>
     <row r="7">
@@ -2045,16 +2045,16 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2065,22 +2065,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1718545408704864</v>
+        <v>0.1474501495413574</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07973499573900343</v>
+        <v>0.05509987756004597</v>
       </c>
     </row>
   </sheetData>
@@ -2192,16 +2192,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2212,22 +2212,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1729314971348111</v>
+        <v>0.208918762698781</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07980270320603913</v>
+        <v>0.1161406388412595</v>
       </c>
     </row>
     <row r="3">
@@ -2243,16 +2243,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2263,22 +2263,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1731586323804531</v>
+        <v>0.1735976383978135</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07969851737016864</v>
+        <v>0.08014619121158896</v>
       </c>
     </row>
     <row r="4">
@@ -2294,16 +2294,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2314,22 +2314,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677707012289383</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00038857787337724</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1725881645828134</v>
+        <v>0.1774159957433393</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07976366105092629</v>
+        <v>0.0846459320043956</v>
       </c>
     </row>
     <row r="5">
@@ -2345,16 +2345,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2365,22 +2365,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673209402884801</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881863886701923</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.172815259378041</v>
+        <v>0.1420948714423718</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07965921212848545</v>
+        <v>0.04865148437472507</v>
       </c>
     </row>
     <row r="6">
@@ -2396,16 +2396,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003698249421743867</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887980573607138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2416,22 +2416,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1718994768876947</v>
+        <v>0.1500279292970601</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07974382189960345</v>
+        <v>0.05767699777969802</v>
       </c>
     </row>
     <row r="7">
@@ -2447,16 +2447,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003695012513233563</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887795560673642</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2467,22 +2467,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1731339972296917</v>
+        <v>0.2628488682000618</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07990079528066965</v>
+        <v>0.1704690709596694</v>
       </c>
     </row>
     <row r="8">
@@ -2498,16 +2498,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003697834350326549</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003890046928887182</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2518,22 +2518,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003676947065831036</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003885217615138841</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N8" t="n">
-        <v>0.17212485006987</v>
+        <v>0.1689479175594861</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07978668824261864</v>
+        <v>0.0765921452816567</v>
       </c>
     </row>
   </sheetData>
@@ -2645,16 +2645,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -2665,22 +2665,22 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K2" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1724941742782387</v>
+        <v>3.878320857128468</v>
       </c>
       <c r="O2" t="n">
-        <v>0.07976394372929441</v>
+        <v>3.855492206326193</v>
       </c>
     </row>
     <row r="3">
@@ -2696,16 +2696,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003700677770746022</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003892568711074409</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -2716,22 +2716,22 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1725700259358239</v>
+        <v>3.450025017791472</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07975602759078546</v>
+        <v>3.419031802980566</v>
       </c>
     </row>
     <row r="4">
@@ -2747,16 +2747,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2767,22 +2767,22 @@
         <v>0.003738242985174041</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007715400049201467</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00209074042170805</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003664392397242961</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003866719857877329</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1722157481117525</v>
+        <v>2.367228711315432</v>
       </c>
       <c r="O4" t="n">
-        <v>0.07978936844455142</v>
+        <v>2.316202845023934</v>
       </c>
     </row>
     <row r="5">
@@ -2798,16 +2798,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003695803433008753</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003888511101901122</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2818,22 +2818,22 @@
         <v>0.003737653314223863</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007714953302197373</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002091130965566821</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003664151178232401</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003867103028664551</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1722916271405752</v>
+        <v>1.938932871978435</v>
       </c>
       <c r="O5" t="n">
-        <v>0.07978142349950271</v>
+        <v>1.879742441678306</v>
       </c>
     </row>
     <row r="6">
@@ -2849,16 +2849,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003698249421743867</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887980573607138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2869,22 +2869,22 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1717648212008404</v>
+        <v>0.1543497932297871</v>
       </c>
       <c r="O6" t="n">
-        <v>0.07983003354935109</v>
+        <v>0.0620812490052128</v>
       </c>
     </row>
     <row r="7">
@@ -2900,16 +2900,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003698249421743867</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887980573607138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2920,22 +2920,22 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1717456846298882</v>
+        <v>0.2710984229767531</v>
       </c>
       <c r="O7" t="n">
-        <v>0.07983205596320619</v>
+        <v>0.1810554470928958</v>
       </c>
     </row>
     <row r="8">
@@ -2951,16 +2951,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003695012513233563</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003887795560673642</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2971,22 +2971,22 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1727510385086155</v>
+        <v>5.566027913463264</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07974050966996088</v>
+        <v>5.574742128322804</v>
       </c>
     </row>
     <row r="9">
@@ -3002,16 +3002,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.003695012513233563</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003887795560673642</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -3022,22 +3022,22 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="J9" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="K9" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="L9" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="N9" t="n">
-        <v>0.172731924990691</v>
+        <v>5.68277654321023</v>
       </c>
       <c r="O9" t="n">
-        <v>0.07974250494350087</v>
+        <v>5.693716326410486</v>
       </c>
     </row>
     <row r="10">
@@ -3053,16 +3053,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003697834350326549</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003890046928887182</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -3073,22 +3073,22 @@
         <v>0.003738194700034289</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007713249213764321</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002088227906286202</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003663445438315733</v>
+        <v>0.003662606842503783</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0003864271814111096</v>
+        <v>0.0003865068645177854</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1719323537489611</v>
+        <v>1.06188422354395</v>
       </c>
       <c r="O10" t="n">
-        <v>0.07981522087392331</v>
+        <v>0.9865504135553796</v>
       </c>
     </row>
     <row r="11">
@@ -3104,16 +3104,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003697834350326549</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003890046928887182</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -3124,22 +3124,22 @@
         <v>0.003738550921650377</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007712640738745598</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002090250885932073</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003663044409669677</v>
+        <v>0.003662194600667156</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003866250763842969</v>
+        <v>0.0003866925453187861</v>
       </c>
       <c r="N11" t="n">
-        <v>0.171913223087983</v>
+        <v>1.178632853290916</v>
       </c>
       <c r="O11" t="n">
-        <v>0.07981724072288554</v>
+        <v>1.105524611643063</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -553,10 +553,10 @@
         <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1829404796169695</v>
+        <v>0.1307914608556032</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09072645437247052</v>
+        <v>0.03803332611570528</v>
       </c>
     </row>
     <row r="3">
@@ -604,10 +604,10 @@
         <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1832101485530748</v>
+        <v>0.0947182945525734</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09065689150741435</v>
+        <v>0.001287028894456051</v>
       </c>
     </row>
     <row r="4">
@@ -655,10 +655,10 @@
         <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1830259421767605</v>
+        <v>0.1399105477192716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09072706501654408</v>
+        <v>0.0471500798224194</v>
       </c>
     </row>
     <row r="5">
@@ -706,10 +706,10 @@
         <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1832956028787775</v>
+        <v>0.1038373814162416</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09065749590497758</v>
+        <v>0.01040378260117018</v>
       </c>
     </row>
     <row r="6">
@@ -757,10 +757,10 @@
         <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.182753086992348</v>
+        <v>0.1499359054412807</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09076854545949349</v>
+        <v>0.05758499738107779</v>
       </c>
     </row>
     <row r="7">
@@ -808,10 +808,10 @@
         <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1827297815988575</v>
+        <v>0.1474501449036</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09076837015279739</v>
+        <v>0.05509987283574693</v>
       </c>
     </row>
     <row r="8">
@@ -859,10 +859,10 @@
         <v>0.0003885226687727657</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1836793300387855</v>
+        <v>0.2089187583979959</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09073100159762036</v>
+        <v>0.1161406344584892</v>
       </c>
     </row>
     <row r="9">
@@ -910,15 +910,15 @@
         <v>0.0003881560437870166</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1839451280080093</v>
+        <v>0.1735976339601624</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09066098305985912</v>
+        <v>0.08014618668934347</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -926,19 +926,19 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D10" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E10" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -946,30 +946,30 @@
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003722801775248976</v>
       </c>
       <c r="J10" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K10" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L10" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N10" t="n">
-        <v>0.1827439341588732</v>
+        <v>0.1774159913196851</v>
       </c>
       <c r="O10" t="n">
-        <v>0.09076811060285991</v>
+        <v>0.08464592749641378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -977,19 +977,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
@@ -997,25 +997,25 @@
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003719928535364826</v>
       </c>
       <c r="J11" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K11" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L11" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N11" t="n">
-        <v>0.1838332693637462</v>
+        <v>0.1420948668818515</v>
       </c>
       <c r="O11" t="n">
-        <v>0.09077504226077322</v>
+        <v>0.04865147972726809</v>
       </c>
     </row>
     <row r="12">
@@ -1028,19 +1028,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003774157409185728</v>
       </c>
       <c r="D12" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F12" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1063,15 +1063,15 @@
         <v>0.0003884701338024097</v>
       </c>
       <c r="N12" t="n">
-        <v>0.1829269716231663</v>
+        <v>0.1500279247660436</v>
       </c>
       <c r="O12" t="n">
-        <v>0.09076962459240778</v>
+        <v>0.05767699316230707</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>201205</v>
+        <v>201207</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1079,50 +1079,50 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003766158719891302</v>
       </c>
       <c r="D13" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>0.003738242985174041</v>
+        <v>0.003724263165303106</v>
       </c>
       <c r="J13" t="n">
-        <v>0.00771391634946168</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K13" t="n">
-        <v>0.00209139498425152</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L13" t="n">
-        <v>0.003663622711217904</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0003867364539879487</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1832188844096179</v>
+        <v>0.2628488641090769</v>
       </c>
       <c r="O13" t="n">
-        <v>0.09075527370650001</v>
+        <v>0.1704690667906986</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>201205</v>
+        <v>201207</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1130,50 +1130,50 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003773012631577434</v>
       </c>
       <c r="D14" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E14" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0.003737653314223863</v>
+        <v>0.003724263165303106</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007713443781756451</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002091761363546503</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0036633699308298</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0003867724163950134</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N14" t="n">
-        <v>0.1832940592465291</v>
+        <v>0.1689479131022625</v>
       </c>
       <c r="O14" t="n">
-        <v>0.09074670740403007</v>
+        <v>0.07659214073946548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1181,19 +1181,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003768911734945011</v>
       </c>
       <c r="D15" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E15" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F15" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1201,30 +1201,30 @@
         </is>
       </c>
       <c r="I15" t="n">
-        <v>0.003738194700034289</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="J15" t="n">
-        <v>0.007711641216452948</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002089037826789298</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L15" t="n">
-        <v>0.003662606842503783</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0003865068645177854</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N15" t="n">
-        <v>0.182504805542279</v>
+        <v>3.878320857130634</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09083278528124251</v>
+        <v>3.8554922063284</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1232,19 +1232,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003768911734945011</v>
       </c>
       <c r="D16" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F16" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1252,30 +1252,30 @@
         </is>
       </c>
       <c r="I16" t="n">
-        <v>0.003738550921650377</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="J16" t="n">
-        <v>0.00771099758411607</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K16" t="n">
-        <v>0.002090935732070055</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L16" t="n">
-        <v>0.003662194600667156</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M16" t="n">
-        <v>0.0003866925453187861</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N16" t="n">
-        <v>0.1824843126005713</v>
+        <v>3.450025017793391</v>
       </c>
       <c r="O16" t="n">
-        <v>0.09083512066665271</v>
+        <v>3.419031802982522</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1283,19 +1283,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D17" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E17" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F17" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1303,30 +1303,30 @@
         </is>
       </c>
       <c r="I17" t="n">
-        <v>0.003738194700034289</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="J17" t="n">
-        <v>0.007711641216452948</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K17" t="n">
-        <v>0.002089037826789298</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L17" t="n">
-        <v>0.003662606842503783</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M17" t="n">
-        <v>0.0003865068645177854</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N17" t="n">
-        <v>0.1834783674209919</v>
+        <v>2.367228711316733</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0907272557705881</v>
+        <v>2.31620284502526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1334,19 +1334,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D18" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E18" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F18" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
@@ -1354,25 +1354,25 @@
         </is>
       </c>
       <c r="I18" t="n">
-        <v>0.003738550921650377</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="J18" t="n">
-        <v>0.00771099758411607</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K18" t="n">
-        <v>0.002090935732070055</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L18" t="n">
-        <v>0.003662194600667156</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M18" t="n">
-        <v>0.0003866925453187861</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N18" t="n">
-        <v>0.1834578759440164</v>
+        <v>1.938932871979491</v>
       </c>
       <c r="O18" t="n">
-        <v>0.09072959096810979</v>
+        <v>1.879742441679382</v>
       </c>
     </row>
     <row r="19">
@@ -1385,19 +1385,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003774157409185728</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E19" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F19" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
         <v>0.0003865068645177854</v>
       </c>
       <c r="N19" t="n">
-        <v>0.1826680860631735</v>
+        <v>0.1543497932298218</v>
       </c>
       <c r="O19" t="n">
-        <v>0.09081509487848403</v>
+        <v>0.06208124900524833</v>
       </c>
     </row>
     <row r="20">
@@ -1436,19 +1436,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003774157409185728</v>
       </c>
       <c r="D20" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F20" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
@@ -1471,10 +1471,214 @@
         <v>0.0003866925453187861</v>
       </c>
       <c r="N20" t="n">
-        <v>0.1826475933192687</v>
+        <v>0.2710984229768549</v>
       </c>
       <c r="O20" t="n">
-        <v>0.09081743023126135</v>
+        <v>0.1810554470929994</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003696145699730478</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0003887100943970135</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.003662606842503783</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0003865068645177854</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.566027913466395</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.574742128325994</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.003696145699730478</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0003887100943970135</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.003662194600667156</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0003866925453187861</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.682776543213429</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.693716326413745</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.00369914585293415</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0003889208781295111</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.003662606842503783</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0003865068645177854</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.061884223544504</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.9865504135559443</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.00369914585293415</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0003889208781295111</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.003662194600667156</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0003866925453187861</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.178632853291537</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.105524611643695</v>
       </c>
     </row>
   </sheetData>
@@ -1618,10 +1822,10 @@
         <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1829404796169695</v>
+        <v>0.1307914608556032</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09072645437247052</v>
+        <v>0.03803332611570528</v>
       </c>
     </row>
     <row r="3">
@@ -1669,10 +1873,10 @@
         <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1832101485530748</v>
+        <v>0.0947182945525734</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09065689150741435</v>
+        <v>0.001287028894456051</v>
       </c>
     </row>
     <row r="4">
@@ -1720,10 +1924,10 @@
         <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1830259421767605</v>
+        <v>0.1399105477192716</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09072706501654408</v>
+        <v>0.0471500798224194</v>
       </c>
     </row>
     <row r="5">
@@ -1771,10 +1975,10 @@
         <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1832956028787775</v>
+        <v>0.1038373814162416</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09065749590497758</v>
+        <v>0.01040378260117018</v>
       </c>
     </row>
     <row r="6">
@@ -1822,10 +2026,10 @@
         <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.182753086992348</v>
+        <v>0.1499359054412807</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09076854545949349</v>
+        <v>0.05758499738107779</v>
       </c>
     </row>
     <row r="7">
@@ -1873,10 +2077,10 @@
         <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1827297815988575</v>
+        <v>0.1474501449036</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09076837015279739</v>
+        <v>0.05509987283574693</v>
       </c>
     </row>
   </sheetData>
@@ -1890,7 +2094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2020,10 +2224,10 @@
         <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1836793300387855</v>
+        <v>0.2089187583979959</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09073100159762036</v>
+        <v>0.1161406344584892</v>
       </c>
     </row>
     <row r="3">
@@ -2071,15 +2275,15 @@
         <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1839451280080093</v>
+        <v>0.1735976339601624</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09066098305985912</v>
+        <v>0.08014618668934347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2087,19 +2291,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2107,30 +2311,30 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003722801775248976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1827439341588732</v>
+        <v>0.1774159913196851</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09076811060285991</v>
+        <v>0.08464592749641378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2138,19 +2342,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2158,25 +2362,25 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003719928535364826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1838332693637462</v>
+        <v>0.1420948668818515</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09077504226077322</v>
+        <v>0.04865147972726809</v>
       </c>
     </row>
     <row r="6">
@@ -2189,19 +2393,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003774157409185728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2224,10 +2428,112 @@
         <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1829269716231663</v>
+        <v>0.1500279247660436</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09076962459240778</v>
+        <v>0.05767699316230707</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003696145699730478</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003887100943970135</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003677013222209626</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003884701338024097</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2628488641090769</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1704690667906986</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.00369914585293415</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003889208781295111</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003677013222209626</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003884701338024097</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1689479131022625</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.07659214073946548</v>
       </c>
     </row>
   </sheetData>
@@ -2241,7 +2547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2371,10 +2677,10 @@
         <v>0.0003867364539879487</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1832188844096179</v>
+        <v>3.878320857130634</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09075527370650001</v>
+        <v>3.8554922063284</v>
       </c>
     </row>
     <row r="3">
@@ -2422,15 +2728,15 @@
         <v>0.0003867724163950134</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1832940592465291</v>
+        <v>3.450025017793391</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09074670740403007</v>
+        <v>3.419031802982522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -2438,19 +2744,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -2458,30 +2764,30 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.003738194700034289</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007711641216452948</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002089037826789298</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003662606842503783</v>
+        <v>0.003663622711217904</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003865068645177854</v>
+        <v>0.0003867364539879487</v>
       </c>
       <c r="N4" t="n">
-        <v>0.182504805542279</v>
+        <v>2.367228711316733</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09083278528124251</v>
+        <v>2.31620284502526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -2489,19 +2795,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003770760540076305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -2509,25 +2815,25 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.003738550921650377</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00771099758411607</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002090935732070055</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003662194600667156</v>
+        <v>0.0036633699308298</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003866925453187861</v>
+        <v>0.0003867724163950134</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1824843126005713</v>
+        <v>1.938932871979491</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09083512066665271</v>
+        <v>1.879742441679382</v>
       </c>
     </row>
     <row r="6">
@@ -2540,19 +2846,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003774157409185728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -2575,10 +2881,10 @@
         <v>0.0003865068645177854</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1834783674209919</v>
+        <v>0.1543497932298218</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0907272557705881</v>
+        <v>0.06208124900524833</v>
       </c>
     </row>
     <row r="7">
@@ -2591,19 +2897,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003774157409185728</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -2626,10 +2932,10 @@
         <v>0.0003866925453187861</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1834578759440164</v>
+        <v>0.2710984229768549</v>
       </c>
       <c r="O7" t="n">
-        <v>0.09072959096810979</v>
+        <v>0.1810554470929994</v>
       </c>
     </row>
     <row r="8">
@@ -2642,19 +2948,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003766158719891302</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -2677,10 +2983,10 @@
         <v>0.0003865068645177854</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1826680860631735</v>
+        <v>5.566027913466395</v>
       </c>
       <c r="O8" t="n">
-        <v>0.09081509487848403</v>
+        <v>5.574742128325994</v>
       </c>
     </row>
     <row r="9">
@@ -2693,19 +2999,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003766158719891302</v>
       </c>
       <c r="D9" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F9" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -2728,10 +3034,112 @@
         <v>0.0003866925453187861</v>
       </c>
       <c r="N9" t="n">
-        <v>0.1826475933192687</v>
+        <v>5.682776543213429</v>
       </c>
       <c r="O9" t="n">
-        <v>0.09081743023126135</v>
+        <v>5.693716326413745</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.00369914585293415</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003889208781295111</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003662606842503783</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003865068645177854</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.061884223544504</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.9865504135559443</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.00369914585293415</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003889208781295111</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003662194600667156</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0003866925453187861</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.178632853291537</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.105524611643695</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -525,10 +525,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003704510721353168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003844766675972887</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2089187583979959</v>
+        <v>0.2085093951456904</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1161406344584892</v>
+        <v>0.1170015283098747</v>
       </c>
     </row>
     <row r="3">
@@ -576,10 +576,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003704510721353168</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003844766675972887</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -596,16 +596,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1735976339601624</v>
+        <v>0.1730708686203457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08014618668934347</v>
+        <v>0.0808874404280719</v>
       </c>
     </row>
     <row r="4">
@@ -627,10 +627,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003699322870897946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003841054311645663</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -647,16 +647,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1774159913196851</v>
+        <v>0.1771292935547637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08464592749641378</v>
+        <v>0.08562945545069948</v>
       </c>
     </row>
     <row r="5">
@@ -678,10 +678,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003699322870897946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003841054311645663</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1420948668818515</v>
+        <v>0.141690767029419</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04865147972726809</v>
+        <v>0.04951536756889674</v>
       </c>
     </row>
     <row r="6">
@@ -729,10 +729,10 @@
         <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003701907871481756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.0003840566011444909</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1500279247660436</v>
+        <v>0.1497407138732045</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05767699316230707</v>
+        <v>0.05865967838574562</v>
       </c>
     </row>
     <row r="7">
@@ -780,10 +780,10 @@
         <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003698480713884728</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.0003840399540594457</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -800,16 +800,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628488641090769</v>
+        <v>0.2625660850568955</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1704690667906986</v>
+        <v>0.1714561827208898</v>
       </c>
     </row>
     <row r="8">
@@ -831,10 +831,10 @@
         <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003701483261742541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003842459342492804</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,16 +851,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1689479131022625</v>
+        <v>0.1685981109124725</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07659214073946548</v>
+        <v>0.07751225068020114</v>
       </c>
     </row>
   </sheetData>
@@ -978,10 +978,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003704510721353168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003844766675972887</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -998,16 +998,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2089187583979959</v>
+        <v>0.2085093951456904</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1161406344584892</v>
+        <v>0.1170015283098747</v>
       </c>
     </row>
     <row r="3">
@@ -1029,10 +1029,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003704510721353168</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003844766675972887</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1735976339601624</v>
+        <v>0.1730708686203457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08014618668934347</v>
+        <v>0.0808874404280719</v>
       </c>
     </row>
     <row r="4">
@@ -1080,10 +1080,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003699322870897946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003841054311645663</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1774159913196851</v>
+        <v>0.1771292935547637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08464592749641378</v>
+        <v>0.08562945545069948</v>
       </c>
     </row>
     <row r="5">
@@ -1131,10 +1131,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003699322870897946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003841054311645663</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1151,16 +1151,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1420948668818515</v>
+        <v>0.141690767029419</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04865147972726809</v>
+        <v>0.04951536756889674</v>
       </c>
     </row>
     <row r="6">
@@ -1182,10 +1182,10 @@
         <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003701907871481756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.0003840566011444909</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1202,16 +1202,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1500279247660436</v>
+        <v>0.1497407138732045</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05767699316230707</v>
+        <v>0.05865967838574562</v>
       </c>
     </row>
     <row r="7">
@@ -1233,10 +1233,10 @@
         <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003698480713884728</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.0003840399540594457</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1253,16 +1253,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628488641090769</v>
+        <v>0.2625660850568955</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1704690667906986</v>
+        <v>0.1714561827208898</v>
       </c>
     </row>
     <row r="8">
@@ -1284,10 +1284,10 @@
         <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003701483261742541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003842459342492804</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1304,16 +1304,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1689479131022625</v>
+        <v>0.1685981109124725</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07659214073946548</v>
+        <v>0.07751225068020114</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ATM-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="S2-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ATM-B6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ATM-S2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,23 +514,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003704510721353168</v>
+        <v>0.003665929635443324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003844766675972887</v>
+        <v>0.0003821114107742013</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -551,10 +553,10 @@
         <v>0.0003838567977034119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2085093951456904</v>
+        <v>0.130525203156969</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1170015283098747</v>
+        <v>0.03903728890660095</v>
       </c>
     </row>
     <row r="3">
@@ -563,23 +565,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003704510721353168</v>
+        <v>0.003665929635443324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003844766675972887</v>
+        <v>0.0003821114107742013</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -602,10 +604,10 @@
         <v>0.000383498527697307</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1730708686203457</v>
+        <v>0.09433213509275459</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0808874404280719</v>
+        <v>0.002168852538573408</v>
       </c>
     </row>
     <row r="4">
@@ -614,23 +616,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003699322870897946</v>
+        <v>0.003665677121160311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003841054311645663</v>
+        <v>0.0003821465568791187</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -653,10 +655,10 @@
         <v>0.0003838567977034119</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1771292935547637</v>
+        <v>0.1396323078219249</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08562945545069948</v>
+        <v>0.0481420634802989</v>
       </c>
     </row>
     <row r="5">
@@ -665,23 +667,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003699322870897946</v>
+        <v>0.003665677121160311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003841054311645663</v>
+        <v>0.0003821465568791187</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -704,10 +706,10 @@
         <v>0.000383498527697307</v>
       </c>
       <c r="N5" t="n">
-        <v>0.141690767029419</v>
+        <v>0.1034392397577104</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04951536756889674</v>
+        <v>0.01127362711227135</v>
       </c>
     </row>
     <row r="6">
@@ -716,23 +718,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003738194700034289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003701907871481756</v>
+        <v>0.003664910461241201</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003840566011444909</v>
+        <v>0.0003818870696169611</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -755,10 +757,10 @@
         <v>0.0003838054599315956</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1497407138732045</v>
+        <v>0.1497287380302069</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05865967838574562</v>
+        <v>0.05864770560681817</v>
       </c>
     </row>
     <row r="7">
@@ -767,23 +769,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003738550921650377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003698480713884728</v>
+        <v>0.003664500138553053</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003840399540594457</v>
+        <v>0.0003820685232952845</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -806,61 +808,877 @@
         <v>0.0003838054599315956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2625660850568955</v>
+        <v>0.1471813874715456</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1714561827208898</v>
+        <v>0.05610100679857453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2085093951456904</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1170015283098747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1730708686203457</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0808874404280719</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1771292935547637</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.08562945545069948</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.141690767029419</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.04951536756889674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1497407138732045</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.05865967838574562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2625660850568955</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1714561827208898</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>0.003773012631577434</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>0.007787213823960496</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E14" t="n">
         <v>0.002114038303996214</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F14" t="n">
         <v>0.003701483261742541</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G14" t="n">
         <v>0.0003842459342492804</v>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>0.003724263165303106</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J14" t="n">
         <v>0.007742496580265385</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K14" t="n">
         <v>0.002109244622837149</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L14" t="n">
         <v>0.00367934554655199</v>
       </c>
-      <c r="M8" t="n">
+      <c r="M14" t="n">
         <v>0.0003838054599315956</v>
       </c>
-      <c r="N8" t="n">
+      <c r="N14" t="n">
         <v>0.1685981109124725</v>
       </c>
-      <c r="O8" t="n">
+      <c r="O14" t="n">
         <v>0.07751225068020114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.871190260257036</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.849503740303047</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.443457188434938</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.413616832457451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.36598200566094</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.316208064546959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.93824893383884</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.880321156701363</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1503031828797055</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.05923286968694278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2699445090254995</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1811549073776048</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.562193885064806</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.572110297768581</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.681835211210599</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.694032335459243</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.054835298604565</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.980643695988577</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.174476624750359</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.102565733679239</v>
       </c>
     </row>
   </sheetData>
@@ -869,6 +1687,408 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.130525203156969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.03903728890660095</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.09433213509275459</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.002168852538573408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1396323078219249</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0481420634802989</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1034392397577104</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01127362711227135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1497287380302069</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05864770560681817</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1471813874715456</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.05610100679857453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1319,4 +2539,610 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.871190260257036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.849503740303047</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.443457188434938</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.413616832457451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.36598200566094</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.316208064546959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.93824893383884</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.880321156701363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1503031828797055</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05923286968694278</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2699445090254995</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1811549073776048</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.562193885064806</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.572110297768581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.681835211210599</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.694032335459243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.054835298604565</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.980643695988577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.174476624750359</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.102565733679239</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ATM-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="S2-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ATM-B6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ATM-S2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,23 +514,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003665929635443324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003821114107742013</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -545,16 +547,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2089187583979959</v>
+        <v>0.130525203156969</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1161406344584892</v>
+        <v>0.03903728890660095</v>
       </c>
     </row>
     <row r="3">
@@ -563,23 +565,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003738242985174041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.00771391634946168</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.00209139498425152</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003665929635443324</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003821114107742013</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -596,16 +598,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1735976339601624</v>
+        <v>0.09433213509275459</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08014618668934347</v>
+        <v>0.002168852538573408</v>
       </c>
     </row>
     <row r="4">
@@ -614,23 +616,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003665677121160311</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003821465568791187</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -647,16 +649,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1774159913196851</v>
+        <v>0.1396323078219249</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08464592749641378</v>
+        <v>0.0481420634802989</v>
       </c>
     </row>
     <row r="5">
@@ -665,23 +667,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003737653314223863</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.007713443781756451</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002091761363546503</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003665677121160311</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003821465568791187</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -698,16 +700,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1420948668818515</v>
+        <v>0.1034392397577104</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04865147972726809</v>
+        <v>0.01127362711227135</v>
       </c>
     </row>
     <row r="6">
@@ -716,23 +718,23 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003738194700034289</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007711641216452948</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002089037826789298</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003664910461241201</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.0003818870696169611</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -749,16 +751,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1500279247660436</v>
+        <v>0.1497287380302069</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05767699316230707</v>
+        <v>0.05864770560681817</v>
       </c>
     </row>
     <row r="7">
@@ -767,23 +769,23 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003738550921650377</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.00771099758411607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002090935732070055</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003664500138553053</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.0003820685232952845</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -800,67 +802,883 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628488641090769</v>
+        <v>0.1471813874715456</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1704690667906986</v>
+        <v>0.05610100679857453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2085093951456904</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.1170015283098747</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1730708686203457</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.0808874404280719</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1771292935547637</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.08562945545069948</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.141690767029419</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.04951536756889674</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1497407138732045</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.05865967838574562</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.2625660850568955</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.1714561827208898</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>0.003773012631577434</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D14" t="n">
         <v>0.007787213823960496</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E14" t="n">
         <v>0.002114038303996214</v>
       </c>
-      <c r="F8" t="n">
-        <v>0.00369914585293415</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="F14" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="I14" t="n">
         <v>0.003724263165303106</v>
       </c>
-      <c r="J8" t="n">
+      <c r="J14" t="n">
         <v>0.007742496580265385</v>
       </c>
-      <c r="K8" t="n">
+      <c r="K14" t="n">
         <v>0.002109244622837149</v>
       </c>
-      <c r="L8" t="n">
-        <v>0.003677013222209626</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0003884701338024097</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1689479131022625</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.07659214073946548</v>
+      <c r="L14" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1685981109124725</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.07751225068020114</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N15" t="n">
+        <v>3.871190260257036</v>
+      </c>
+      <c r="O15" t="n">
+        <v>3.849503740303047</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N16" t="n">
+        <v>3.443457188434938</v>
+      </c>
+      <c r="O16" t="n">
+        <v>3.413616832457451</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N17" t="n">
+        <v>2.36598200566094</v>
+      </c>
+      <c r="O17" t="n">
+        <v>2.316208064546959</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.93824893383884</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.880321156701363</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.1503031828797055</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.05923286968694278</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.2699445090254995</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.1811549073776048</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N21" t="n">
+        <v>5.562193885064806</v>
+      </c>
+      <c r="O21" t="n">
+        <v>5.572110297768581</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N22" t="n">
+        <v>5.681835211210599</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.694032335459243</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.054835298604565</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.980643695988577</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.174476624750359</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.102565733679239</v>
       </c>
     </row>
   </sheetData>
@@ -869,6 +1687,408 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.130525203156969</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.03903728890660095</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.09433213509275459</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.002168852538573408</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003722801775248976</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007744164034237219</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.002109788966545483</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003680153597638993</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0003838567977034119</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1396323078219249</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.0481420634802989</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003719928535364826</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007734232986583432</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002105997079923158</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003675367230564265</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.000383498527697307</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1034392397577104</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.01127362711227135</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1497287380302069</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05864770560681817</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003724263165303106</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007742496580265385</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002109244622837149</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.00367934554655199</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003838054599315956</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1471813874715456</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.05610100679857453</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -978,10 +2198,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003704510721353168</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003844766675972887</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -998,16 +2218,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2089187583979959</v>
+        <v>0.2085093951456904</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1161406344584892</v>
+        <v>0.1170015283098747</v>
       </c>
     </row>
     <row r="3">
@@ -1029,10 +2249,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003704510721353168</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.0003844766675972887</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1049,16 +2269,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1735976339601624</v>
+        <v>0.1730708686203457</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08014618668934347</v>
+        <v>0.0808874404280719</v>
       </c>
     </row>
     <row r="4">
@@ -1080,10 +2300,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003699322870897946</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003841054311645663</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1100,16 +2320,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003680153597638993</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.0003838567977034119</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1774159913196851</v>
+        <v>0.1771292935547637</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08464592749641378</v>
+        <v>0.08562945545069948</v>
       </c>
     </row>
     <row r="5">
@@ -1131,10 +2351,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003699322870897946</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.0003841054311645663</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1151,16 +2371,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003675367230564265</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.000383498527697307</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1420948668818515</v>
+        <v>0.141690767029419</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04865147972726809</v>
+        <v>0.04951536756889674</v>
       </c>
     </row>
     <row r="6">
@@ -1182,10 +2402,10 @@
         <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003701907871481756</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.0003840566011444909</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1202,16 +2422,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1500279247660436</v>
+        <v>0.1497407138732045</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05767699316230707</v>
+        <v>0.05865967838574562</v>
       </c>
     </row>
     <row r="7">
@@ -1233,10 +2453,10 @@
         <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003698480713884728</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.0003840399540594457</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1253,16 +2473,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628488641090769</v>
+        <v>0.2625660850568955</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1704690667906986</v>
+        <v>0.1714561827208898</v>
       </c>
     </row>
     <row r="8">
@@ -1284,10 +2504,10 @@
         <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003701483261742541</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.0003842459342492804</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1304,16 +2524,622 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.00367934554655199</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.0003838054599315956</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1689479131022625</v>
+        <v>0.1685981109124725</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07659214073946548</v>
+        <v>0.07751225068020114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.871190260257036</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.849503740303047</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003768911734945011</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.007793499819165031</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002116479886116219</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003704510721353168</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003844766675972887</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N3" t="n">
+        <v>3.443457188434938</v>
+      </c>
+      <c r="O3" t="n">
+        <v>3.413616832457451</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003738242985174041</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.00771391634946168</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00209139498425152</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003665929635443324</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0003821114107742013</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.36598200566094</v>
+      </c>
+      <c r="O4" t="n">
+        <v>2.316208064546959</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003770760540076305</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.007782752318650127</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002112548954645945</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003699322870897946</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003841054311645663</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003737653314223863</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007713443781756451</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002091761363546503</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003665677121160311</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0003821465568791187</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.93824893383884</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.880321156701363</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1503031828797055</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.05923286968694278</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003774157409185728</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007787873750271767</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.00211205838421125</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003701907871481756</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003840566011444909</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2699445090254995</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.1811549073776048</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N8" t="n">
+        <v>5.562193885064806</v>
+      </c>
+      <c r="O8" t="n">
+        <v>5.572110297768581</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003766158719891302</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007781002446557233</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002111856223390097</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003698480713884728</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003840399540594457</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5.681835211210599</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.694032335459243</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003738194700034289</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007711641216452948</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002089037826789298</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003664910461241201</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003818870696169611</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.054835298604565</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.980643695988577</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003773012631577434</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007787213823960496</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002114038303996214</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003701483261742541</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003842459342492804</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003738550921650377</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.00771099758411607</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002090935732070055</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003664500138553053</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0003820685232952845</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.174476624750359</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.102565733679239</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -519,16 +519,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003703019004167107</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003845742699228161</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -539,22 +539,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003680040562593211</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003839107441448915</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2091288397435046</v>
+        <v>0.2089187583979959</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1176061290839624</v>
+        <v>0.1161406344584892</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003703019004167107</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003845742699228161</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -590,22 +590,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003675538503072143</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003835281810239039</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1740326254061542</v>
+        <v>0.1735976339601624</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08184087885576256</v>
+        <v>0.08014618668934347</v>
       </c>
     </row>
     <row r="4">
@@ -621,16 +621,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003698140054633031</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003841777559768219</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -641,22 +641,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003680040562593211</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003839107441448915</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1773914372444855</v>
+        <v>0.1774159913196851</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08587684673364403</v>
+        <v>0.08464592749641378</v>
       </c>
     </row>
     <row r="5">
@@ -672,16 +672,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003698140054633031</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003841777559768219</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -692,22 +692,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003675538503072143</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003835281810239039</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1422952229071351</v>
+        <v>0.1420948668818515</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05011159650544415</v>
+        <v>0.04865147972726809</v>
       </c>
     </row>
     <row r="6">
@@ -723,16 +723,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003700585433254881</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000384125912537138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -743,22 +743,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003679279978564898</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003838559110058119</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.150009511853521</v>
+        <v>0.1500279247660436</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05891467380941966</v>
+        <v>0.05767699316230707</v>
       </c>
     </row>
     <row r="7">
@@ -774,16 +774,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003697348321425102</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003841078325232079</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -794,22 +794,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003679279978564898</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003838559110058119</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628146441537145</v>
+        <v>0.2628488641090769</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1716909444392702</v>
+        <v>0.1704690667906986</v>
       </c>
     </row>
     <row r="8">
@@ -825,16 +825,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00370017271711588</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003843278386694184</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -845,22 +845,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003679279978564898</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003838559110058119</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1690449117708085</v>
+        <v>0.1689479131022625</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07794520343910534</v>
+        <v>0.07659214073946548</v>
       </c>
     </row>
   </sheetData>
@@ -972,16 +972,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003703019004167107</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003845742699228161</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -992,22 +992,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003680040562593211</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003839107441448915</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2091288397435046</v>
+        <v>0.2089187583979959</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1176061290839624</v>
+        <v>0.1161406344584892</v>
       </c>
     </row>
     <row r="3">
@@ -1023,16 +1023,16 @@
         <v>0.003768911734945011</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007790613819287051</v>
+        <v>0.007793499819165031</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002117490233832286</v>
+        <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003703019004167107</v>
+        <v>0.003702170629356947</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003845742699228161</v>
+        <v>0.0003891569923179599</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1043,22 +1043,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J3" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003675538503072143</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003835281810239039</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1740326254061542</v>
+        <v>0.1735976339601624</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08184087885576256</v>
+        <v>0.08014618668934347</v>
       </c>
     </row>
     <row r="4">
@@ -1074,16 +1074,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003698140054633031</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003841777559768219</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1094,22 +1094,22 @@
         <v>0.003722801775248976</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007743991908667606</v>
+        <v>0.007744164034237219</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002110353165636288</v>
+        <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003680040562593211</v>
+        <v>0.003677820676590643</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003839107441448915</v>
+        <v>0.0003885226687727657</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1773914372444855</v>
+        <v>0.1774159913196851</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08587684673364403</v>
+        <v>0.08464592749641378</v>
       </c>
     </row>
     <row r="5">
@@ -1125,16 +1125,16 @@
         <v>0.003770760540076305</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007780458901723035</v>
+        <v>0.007782752318650127</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002113297007446234</v>
+        <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003698140054633031</v>
+        <v>0.003696987095268748</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003841777559768219</v>
+        <v>0.000388777098467939</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1145,22 +1145,22 @@
         <v>0.003719928535364826</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00773460518481109</v>
+        <v>0.007734232986583432</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002106309102767537</v>
+        <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003675538503072143</v>
+        <v>0.003673038475728314</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003835281810239039</v>
+        <v>0.0003881560437870166</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1422952229071351</v>
+        <v>0.1420948668818515</v>
       </c>
       <c r="O5" t="n">
-        <v>0.05011159650544415</v>
+        <v>0.04865147972726809</v>
       </c>
     </row>
     <row r="6">
@@ -1176,16 +1176,16 @@
         <v>0.003774157409185728</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007785298049737537</v>
+        <v>0.007787873750271767</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002112773739538533</v>
+        <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003700585433254881</v>
+        <v>0.003699572671149732</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000384125912537138</v>
+        <v>0.0003887271293238374</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1196,22 +1196,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003679279978564898</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003838559110058119</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N6" t="n">
-        <v>0.150009511853521</v>
+        <v>0.1500279247660436</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05891467380941966</v>
+        <v>0.05767699316230707</v>
       </c>
     </row>
     <row r="7">
@@ -1227,16 +1227,16 @@
         <v>0.003766158719891302</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007778805439255057</v>
+        <v>0.007781002446557233</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002112558106649536</v>
+        <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003697348321425102</v>
+        <v>0.003696145699730478</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003841078325232079</v>
+        <v>0.0003887100943970135</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1247,22 +1247,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003679279978564898</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003838559110058119</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628146441537145</v>
+        <v>0.2628488641090769</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1716909444392702</v>
+        <v>0.1704690667906986</v>
       </c>
     </row>
     <row r="8">
@@ -1278,16 +1278,16 @@
         <v>0.003773012631577434</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007784674507108374</v>
+        <v>0.007787213823960496</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002114885674162161</v>
+        <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00370017271711588</v>
+        <v>0.00369914585293415</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003843278386694184</v>
+        <v>0.0003889208781295111</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1298,22 +1298,22 @@
         <v>0.003724263165303106</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007742415894486522</v>
+        <v>0.007742496580265385</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002109772591168823</v>
+        <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003679279978564898</v>
+        <v>0.003677013222209626</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003838559110058119</v>
+        <v>0.0003884701338024097</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1690449117708085</v>
+        <v>0.1689479131022625</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07794520343910534</v>
+        <v>0.07659214073946548</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -525,10 +525,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003702222127051057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.002099893460859661</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -545,16 +545,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003677865467017766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.00209340517209855</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2089187583979959</v>
+        <v>0.3670017863326024</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1161406344584892</v>
+        <v>-0.1907152885455783</v>
       </c>
     </row>
     <row r="3">
@@ -576,10 +576,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003702222127051057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.002099893460859661</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -596,16 +596,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003673082346325243</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.002089664688983711</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1735976339601624</v>
+        <v>0.379263849191313</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08014618668934347</v>
+        <v>-0.1782194751156673</v>
       </c>
     </row>
     <row r="4">
@@ -627,10 +627,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003697034627764989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.002096007444871974</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -647,16 +647,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003677865467017766</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.00209340517209855</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1774159913196851</v>
+        <v>0.2856629739041236</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08464592749641378</v>
+        <v>-0.2720332900947778</v>
       </c>
     </row>
     <row r="5">
@@ -678,10 +678,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003697034627764989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.002096007444871974</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -698,16 +698,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003673082346325243</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.002089664688983711</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1420948668818515</v>
+        <v>0.2979250367628342</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04865147972726809</v>
+        <v>-0.2595374766648668</v>
       </c>
     </row>
     <row r="6">
@@ -729,10 +729,10 @@
         <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003699619699356788</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.002095496242379899</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -749,16 +749,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677057440048185</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.00209286825816626</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1500279247660436</v>
+        <v>0.2584883145367431</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05767699316230707</v>
+        <v>-0.2986551597096462</v>
       </c>
     </row>
     <row r="7">
@@ -780,10 +780,10 @@
         <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003696192533421012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.002095322040949255</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -800,16 +800,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677057440048185</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.00209286825816626</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628488641090769</v>
+        <v>0.3694649080647032</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1704690667906986</v>
+        <v>-0.1877069600126482</v>
       </c>
     </row>
     <row r="8">
@@ -831,10 +831,10 @@
         <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003699194886987533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.002097478198739332</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -851,16 +851,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677057440048185</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.00209286825816626</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1689479131022625</v>
+        <v>0.3028353265431929</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07659214073946548</v>
+        <v>-0.254319494073837</v>
       </c>
     </row>
   </sheetData>
@@ -978,10 +978,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003702222127051057</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.002099893460859661</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -998,16 +998,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003677865467017766</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.00209340517209855</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2089187583979959</v>
+        <v>0.3670017863326024</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1161406344584892</v>
+        <v>-0.1907152885455783</v>
       </c>
     </row>
     <row r="3">
@@ -1029,10 +1029,10 @@
         <v>0.002116479886116219</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702170629356947</v>
+        <v>0.003702222127051057</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003891569923179599</v>
+        <v>0.002099893460859661</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1049,16 +1049,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003673082346325243</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.002089664688983711</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1735976339601624</v>
+        <v>0.379263849191313</v>
       </c>
       <c r="O3" t="n">
-        <v>0.08014618668934347</v>
+        <v>-0.1782194751156673</v>
       </c>
     </row>
     <row r="4">
@@ -1080,10 +1080,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003697034627764989</v>
       </c>
       <c r="G4" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.002096007444871974</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1100,16 +1100,16 @@
         <v>0.002109788966545483</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677820676590643</v>
+        <v>0.003677865467017766</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003885226687727657</v>
+        <v>0.00209340517209855</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1774159913196851</v>
+        <v>0.2856629739041236</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08464592749641378</v>
+        <v>-0.2720332900947778</v>
       </c>
     </row>
     <row r="5">
@@ -1131,10 +1131,10 @@
         <v>0.002112548954645945</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003696987095268748</v>
+        <v>0.003697034627764989</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000388777098467939</v>
+        <v>0.002096007444871974</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1151,16 +1151,16 @@
         <v>0.002105997079923158</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673038475728314</v>
+        <v>0.003673082346325243</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003881560437870166</v>
+        <v>0.002089664688983711</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1420948668818515</v>
+        <v>0.2979250367628342</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04865147972726809</v>
+        <v>-0.2595374766648668</v>
       </c>
     </row>
     <row r="6">
@@ -1182,10 +1182,10 @@
         <v>0.00211205838421125</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699572671149732</v>
+        <v>0.003699619699356788</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003887271293238374</v>
+        <v>0.002095496242379899</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1202,16 +1202,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677057440048185</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.00209286825816626</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1500279247660436</v>
+        <v>0.2584883145367431</v>
       </c>
       <c r="O6" t="n">
-        <v>0.05767699316230707</v>
+        <v>-0.2986551597096462</v>
       </c>
     </row>
     <row r="7">
@@ -1233,10 +1233,10 @@
         <v>0.002111856223390097</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696145699730478</v>
+        <v>0.003696192533421012</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003887100943970135</v>
+        <v>0.002095322040949255</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1253,16 +1253,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677057440048185</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.00209286825816626</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2628488641090769</v>
+        <v>0.3694649080647032</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1704690667906986</v>
+        <v>-0.1877069600126482</v>
       </c>
     </row>
     <row r="8">
@@ -1284,10 +1284,10 @@
         <v>0.002114038303996214</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00369914585293415</v>
+        <v>0.003699194886987533</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0003889208781295111</v>
+        <v>0.002097478198739332</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1304,16 +1304,16 @@
         <v>0.002109244622837149</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677013222209626</v>
+        <v>0.003677057440048185</v>
       </c>
       <c r="M8" t="n">
-        <v>0.0003884701338024097</v>
+        <v>0.00209286825816626</v>
       </c>
       <c r="N8" t="n">
-        <v>0.1689479131022625</v>
+        <v>0.3028353265431929</v>
       </c>
       <c r="O8" t="n">
-        <v>0.07659214073946548</v>
+        <v>-0.254319494073837</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -516,19 +516,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003769909960995901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.007793352989302926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.002113201754037048</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702222127051057</v>
+        <v>0.003702305540019583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002099893460859661</v>
+        <v>0.0003887404917641695</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -536,25 +536,25 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.003722801775248976</v>
+        <v>0.003723787788712729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007744164034237219</v>
+        <v>0.007744018133863363</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002109788966545483</v>
+        <v>0.002106521197767294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677865467017766</v>
+        <v>0.003677948519669682</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00209340517209855</v>
+        <v>0.0003881208956607774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3670017863326024</v>
+        <v>0.2084769676046654</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1907152885455783</v>
+        <v>0.1160767438553549</v>
       </c>
     </row>
     <row r="3">
@@ -567,19 +567,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003769909960995901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.007793352989302926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.002113201754037048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702222127051057</v>
+        <v>0.003702305540019583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002099893460859661</v>
+        <v>0.0003887404917641695</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -587,25 +587,25 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.003719928535364826</v>
+        <v>0.003720913787828295</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007734232986583432</v>
+        <v>0.007734087273310928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002105997079923158</v>
+        <v>0.002102735184248351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673082346325243</v>
+        <v>0.003673164546190823</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002089664688983711</v>
+        <v>0.0003877641643389194</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379263849191313</v>
+        <v>0.173005804283726</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1782194751156673</v>
+        <v>0.07992939702573887</v>
       </c>
     </row>
     <row r="4">
@@ -618,19 +618,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003771759255797842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.00778260569127138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002109276911031228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003697034627764989</v>
+        <v>0.003697117852169486</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002096007444871974</v>
+        <v>0.0003883691171730131</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -638,25 +638,25 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.003722801775248976</v>
+        <v>0.003723787788712729</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007744164034237219</v>
+        <v>0.007744018133863363</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002109788966545483</v>
+        <v>0.002106521197767294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677865467017766</v>
+        <v>0.003677948519669682</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00209340517209855</v>
+        <v>0.0003881208956607774</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2856629739041236</v>
+        <v>0.1770877874050666</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2720332900947778</v>
+        <v>0.08469559471030816</v>
       </c>
     </row>
     <row r="5">
@@ -669,19 +669,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003771759255797842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.00778260569127138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002109276911031228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003697034627764989</v>
+        <v>0.003697117852169486</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002096007444871974</v>
+        <v>0.0003883691171730131</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -689,25 +689,25 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.003719928535364826</v>
+        <v>0.003720913787828295</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007734232986583432</v>
+        <v>0.007734087273310928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002105997079923158</v>
+        <v>0.002102735184248351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673082346325243</v>
+        <v>0.003673164546190823</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002089664688983711</v>
+        <v>0.0003877641643389194</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2979250367628342</v>
+        <v>0.141616624084127</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2595374766648668</v>
+        <v>0.04854824788069214</v>
       </c>
     </row>
     <row r="6">
@@ -720,19 +720,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003775157024594888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007787727026405036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002108787100421698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699619699356788</v>
+        <v>0.003699702839221671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002095496242379899</v>
+        <v>0.000388320234647194</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -740,25 +740,25 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677057440048185</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00209286825816626</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2584883145367431</v>
+        <v>0.1496888401862124</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2986551597096462</v>
+        <v>0.0577155186099103</v>
       </c>
     </row>
     <row r="7">
@@ -771,19 +771,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003767156216784404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007780855852146149</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002108585252719454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696192533421012</v>
+        <v>0.003696275723234606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002095322040949255</v>
+        <v>0.0003883035805857967</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -791,25 +791,25 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677057440048185</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00209286825816626</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3694649080647032</v>
+        <v>0.2625447922510269</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1877069600126482</v>
+        <v>0.1705425960019301</v>
       </c>
     </row>
     <row r="8">
@@ -822,19 +822,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003774011943783199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007787067112526803</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.002110763953587128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003699194886987533</v>
+        <v>0.003699278179158993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002097478198739332</v>
+        <v>0.0003885097115356922</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -842,25 +842,25 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677057440048185</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00209286825816626</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3028353265431929</v>
+        <v>0.1685526780378239</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.254319494073837</v>
+        <v>0.0765745300688003</v>
       </c>
     </row>
   </sheetData>
@@ -969,19 +969,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003769909960995901</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.007793352989302926</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.002113201754037048</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702222127051057</v>
+        <v>0.003702305540019583</v>
       </c>
       <c r="G2" t="n">
-        <v>0.002099893460859661</v>
+        <v>0.0003887404917641695</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -989,25 +989,25 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.003722801775248976</v>
+        <v>0.003723787788712729</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007744164034237219</v>
+        <v>0.007744018133863363</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002109788966545483</v>
+        <v>0.002106521197767294</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003677865467017766</v>
+        <v>0.003677948519669682</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00209340517209855</v>
+        <v>0.0003881208956607774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3670017863326024</v>
+        <v>0.2084769676046654</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.1907152885455783</v>
+        <v>0.1160767438553549</v>
       </c>
     </row>
     <row r="3">
@@ -1020,19 +1020,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003768911734945011</v>
+        <v>0.003769909960995901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007793499819165031</v>
+        <v>0.007793352989302926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002116479886116219</v>
+        <v>0.002113201754037048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702222127051057</v>
+        <v>0.003702305540019583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.002099893460859661</v>
+        <v>0.0003887404917641695</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1040,25 +1040,25 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.003719928535364826</v>
+        <v>0.003720913787828295</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007734232986583432</v>
+        <v>0.007734087273310928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002105997079923158</v>
+        <v>0.002102735184248351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673082346325243</v>
+        <v>0.003673164546190823</v>
       </c>
       <c r="M3" t="n">
-        <v>0.002089664688983711</v>
+        <v>0.0003877641643389194</v>
       </c>
       <c r="N3" t="n">
-        <v>0.379263849191313</v>
+        <v>0.173005804283726</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.1782194751156673</v>
+        <v>0.07992939702573887</v>
       </c>
     </row>
     <row r="4">
@@ -1071,19 +1071,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003771759255797842</v>
       </c>
       <c r="D4" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.00778260569127138</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002109276911031228</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003697034627764989</v>
+        <v>0.003697117852169486</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002096007444871974</v>
+        <v>0.0003883691171730131</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -1091,25 +1091,25 @@
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.003722801775248976</v>
+        <v>0.003723787788712729</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007744164034237219</v>
+        <v>0.007744018133863363</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002109788966545483</v>
+        <v>0.002106521197767294</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677865467017766</v>
+        <v>0.003677948519669682</v>
       </c>
       <c r="M4" t="n">
-        <v>0.00209340517209855</v>
+        <v>0.0003881208956607774</v>
       </c>
       <c r="N4" t="n">
-        <v>0.2856629739041236</v>
+        <v>0.1770877874050666</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.2720332900947778</v>
+        <v>0.08469559471030816</v>
       </c>
     </row>
     <row r="5">
@@ -1122,19 +1122,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003770760540076305</v>
+        <v>0.003771759255797842</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007782752318650127</v>
+        <v>0.00778260569127138</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002112548954645945</v>
+        <v>0.002109276911031228</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003697034627764989</v>
+        <v>0.003697117852169486</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002096007444871974</v>
+        <v>0.0003883691171730131</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -1142,25 +1142,25 @@
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.003719928535364826</v>
+        <v>0.003720913787828295</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007734232986583432</v>
+        <v>0.007734087273310928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002105997079923158</v>
+        <v>0.002102735184248351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673082346325243</v>
+        <v>0.003673164546190823</v>
       </c>
       <c r="M5" t="n">
-        <v>0.002089664688983711</v>
+        <v>0.0003877641643389194</v>
       </c>
       <c r="N5" t="n">
-        <v>0.2979250367628342</v>
+        <v>0.141616624084127</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.2595374766648668</v>
+        <v>0.04854824788069214</v>
       </c>
     </row>
     <row r="6">
@@ -1173,19 +1173,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003774157409185728</v>
+        <v>0.003775157024594888</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007787873750271767</v>
+        <v>0.007787727026405036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.00211205838421125</v>
+        <v>0.002108787100421698</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699619699356788</v>
+        <v>0.003699702839221671</v>
       </c>
       <c r="G6" t="n">
-        <v>0.002095496242379899</v>
+        <v>0.000388320234647194</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1193,25 +1193,25 @@
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677057440048185</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00209286825816626</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N6" t="n">
-        <v>0.2584883145367431</v>
+        <v>0.1496888401862124</v>
       </c>
       <c r="O6" t="n">
-        <v>-0.2986551597096462</v>
+        <v>0.0577155186099103</v>
       </c>
     </row>
     <row r="7">
@@ -1224,19 +1224,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003766158719891302</v>
+        <v>0.003767156216784404</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007781002446557233</v>
+        <v>0.007780855852146149</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002111856223390097</v>
+        <v>0.002108585252719454</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696192533421012</v>
+        <v>0.003696275723234606</v>
       </c>
       <c r="G7" t="n">
-        <v>0.002095322040949255</v>
+        <v>0.0003883035805857967</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
@@ -1244,25 +1244,25 @@
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677057440048185</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.00209286825816626</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N7" t="n">
-        <v>0.3694649080647032</v>
+        <v>0.2625447922510269</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.1877069600126482</v>
+        <v>0.1705425960019301</v>
       </c>
     </row>
     <row r="8">
@@ -1275,19 +1275,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.003773012631577434</v>
+        <v>0.003774011943783199</v>
       </c>
       <c r="D8" t="n">
-        <v>0.007787213823960496</v>
+        <v>0.007787067112526803</v>
       </c>
       <c r="E8" t="n">
-        <v>0.002114038303996214</v>
+        <v>0.002110763953587128</v>
       </c>
       <c r="F8" t="n">
-        <v>0.003699194886987533</v>
+        <v>0.003699278179158993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002097478198739332</v>
+        <v>0.0003885097115356922</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -1295,25 +1295,25 @@
         </is>
       </c>
       <c r="I8" t="n">
-        <v>0.003724263165303106</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J8" t="n">
-        <v>0.007742496580265385</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K8" t="n">
-        <v>0.002109244622837149</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L8" t="n">
-        <v>0.003677057440048185</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M8" t="n">
-        <v>0.00209286825816626</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N8" t="n">
-        <v>0.3028353265431929</v>
+        <v>0.1685526780378239</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.254319494073837</v>
+        <v>0.0765745300688003</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -8,7 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ATM-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="S2-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ATM-B6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ATM-S2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,23 +514,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003769909960995901</v>
+        <v>0.003738643261235055</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007793352989302926</v>
+        <v>0.007713298460153434</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002113201754037048</v>
+        <v>0.002088521517010378</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003702305540019583</v>
+        <v>0.003663482298378412</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003887404917641695</v>
+        <v>0.0003864278685440451</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -551,10 +553,10 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2084769676046654</v>
+        <v>0.1826945278783137</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1160767438553549</v>
+        <v>0.09076446608354739</v>
       </c>
     </row>
     <row r="3">
@@ -587,25 +589,25 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.003720913787828295</v>
+        <v>0.003723787788712729</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007734087273310928</v>
+        <v>0.007744018133863363</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002102735184248351</v>
+        <v>0.002106521197767294</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673164546190823</v>
+        <v>0.003677948519669682</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003877641643389194</v>
+        <v>0.0003881208956607774</v>
       </c>
       <c r="N3" t="n">
-        <v>0.173005804283726</v>
+        <v>0.1833394269032388</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07992939702573887</v>
+        <v>0.09076888152995703</v>
       </c>
     </row>
     <row r="4">
@@ -653,10 +655,10 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1770877874050666</v>
+        <v>0.1830362050065858</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08469559471030816</v>
+        <v>0.09076680909892793</v>
       </c>
     </row>
     <row r="5">
@@ -669,50 +671,50 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003771759255797842</v>
+        <v>0.003769909960995901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.00778260569127138</v>
+        <v>0.007793352989302926</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002109276911031228</v>
+        <v>0.002113201754037048</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003697117852169486</v>
+        <v>0.003702305540019583</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003883691171730131</v>
+        <v>0.0003887404917641695</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.003720913787828295</v>
+        <v>0.003738643261235055</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007734087273310928</v>
+        <v>0.007713298460153434</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002102735184248351</v>
+        <v>0.002088521517010378</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003673164546190823</v>
+        <v>0.003663482298378412</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003877641643389194</v>
+        <v>0.0003864278685440451</v>
       </c>
       <c r="N5" t="n">
-        <v>0.141616624084127</v>
+        <v>0.1829611512843659</v>
       </c>
       <c r="O5" t="n">
-        <v>0.04854824788069214</v>
+        <v>0.09078368741430208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>201207</v>
+        <v>201205</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -720,45 +722,45 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003775157024594888</v>
+        <v>0.003771759255797842</v>
       </c>
       <c r="D6" t="n">
-        <v>0.007787727026405036</v>
+        <v>0.00778260569127138</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002108787100421698</v>
+        <v>0.002109276911031228</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003699702839221671</v>
+        <v>0.003697117852169486</v>
       </c>
       <c r="G6" t="n">
-        <v>0.000388320234647194</v>
+        <v>0.0003883691171730131</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.003725249565827561</v>
+        <v>0.003738643261235055</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007742350711306432</v>
+        <v>0.007713298460153434</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002105977697171425</v>
+        <v>0.002088521517010378</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003677140371788187</v>
+        <v>0.003663482298378412</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003880697129385161</v>
+        <v>0.0003864278685440451</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1496888401862124</v>
+        <v>0.1826902781350212</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0577155186099103</v>
+        <v>0.09081304540795609</v>
       </c>
     </row>
     <row r="7">
@@ -771,96 +773,45 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.003767156216784404</v>
+        <v>0.003775157024594888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.007780855852146149</v>
+        <v>0.007787727026405036</v>
       </c>
       <c r="E7" t="n">
-        <v>0.002108585252719454</v>
+        <v>0.002108787100421698</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003696275723234606</v>
+        <v>0.003699702839221671</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003883035805857967</v>
+        <v>0.000388320234647194</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="I7" t="n">
-        <v>0.003725249565827561</v>
+        <v>0.00373918479043579</v>
       </c>
       <c r="J7" t="n">
-        <v>0.007742350711306432</v>
+        <v>0.007711495928810338</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002105977697171425</v>
+        <v>0.002085802198631657</v>
       </c>
       <c r="L7" t="n">
-        <v>0.003677140371788187</v>
+        <v>0.003662714003913901</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0003880697129385161</v>
+        <v>0.0003861730303119909</v>
       </c>
       <c r="N7" t="n">
-        <v>0.2625447922510269</v>
+        <v>0.1821741353339218</v>
       </c>
       <c r="O7" t="n">
-        <v>0.1705425960019301</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>201207</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003774011943783199</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.007787067112526803</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002110763953587128</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003699278179158993</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0003885097115356922</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.003725249565827561</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.007742350711306432</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.002105977697171425</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.003677140371788187</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0003880697129385161</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1685526780378239</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0765745300688003</v>
+        <v>0.0908695026407999</v>
       </c>
     </row>
   </sheetData>
@@ -874,7 +825,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -965,6 +916,153 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003723787788712729</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007744018133863363</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.002106521197767294</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003677948519669682</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003881208956607774</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1826945278783137</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.09076446608354739</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>ATM</t>
         </is>
       </c>
@@ -1004,10 +1102,10 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.2084769676046654</v>
+        <v>0.1833394269032388</v>
       </c>
       <c r="O2" t="n">
-        <v>0.1160767438553549</v>
+        <v>0.09076888152995703</v>
       </c>
     </row>
     <row r="3">
@@ -1020,50 +1118,248 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003723787788712729</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007744018133863363</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002106521197767294</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003677948519669682</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0003881208956607774</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1830362050065858</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.09076680909892793</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.003769909960995901</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.007793352989302926</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.002113201754037048</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.003702305540019583</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.0003887404917641695</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.1829611512843659</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.09078368741430208</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003771759255797842</v>
+      </c>
       <c r="D3" t="n">
-        <v>0.007793352989302926</v>
+        <v>0.00778260569127138</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002113201754037048</v>
+        <v>0.002109276911031228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702305540019583</v>
+        <v>0.003697117852169486</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003887404917641695</v>
+        <v>0.0003883691171730131</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.003720913787828295</v>
+        <v>0.003738643261235055</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007734087273310928</v>
+        <v>0.007713298460153434</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002102735184248351</v>
+        <v>0.002088521517010378</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003673164546190823</v>
+        <v>0.003663482298378412</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003877641643389194</v>
+        <v>0.0003864278685440451</v>
       </c>
       <c r="N3" t="n">
-        <v>0.173005804283726</v>
+        <v>0.1826902781350212</v>
       </c>
       <c r="O3" t="n">
-        <v>0.07992939702573887</v>
+        <v>0.09081304540795609</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>201205</v>
+        <v>201207</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -1071,249 +1367,45 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003771759255797842</v>
+        <v>0.003775157024594888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00778260569127138</v>
+        <v>0.007787727026405036</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002109276911031228</v>
+        <v>0.002108787100421698</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003697117852169486</v>
+        <v>0.003699702839221671</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003883691171730131</v>
+        <v>0.000388320234647194</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>B6</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>0.003723787788712729</v>
+        <v>0.00373918479043579</v>
       </c>
       <c r="J4" t="n">
-        <v>0.007744018133863363</v>
+        <v>0.007711495928810338</v>
       </c>
       <c r="K4" t="n">
-        <v>0.002106521197767294</v>
+        <v>0.002085802198631657</v>
       </c>
       <c r="L4" t="n">
-        <v>0.003677948519669682</v>
+        <v>0.003662714003913901</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0003881208956607774</v>
+        <v>0.0003861730303119909</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1770877874050666</v>
+        <v>0.1821741353339218</v>
       </c>
       <c r="O4" t="n">
-        <v>0.08469559471030816</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>201205</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003771759255797842</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.00778260569127138</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.002109276911031228</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.003697117852169486</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.0003883691171730131</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>0.003720913787828295</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.007734087273310928</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.002102735184248351</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.003673164546190823</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0003877641643389194</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.141616624084127</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.04854824788069214</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>201207</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.003775157024594888</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.007787727026405036</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.002108787100421698</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.003699702839221671</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.000388320234647194</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0.003725249565827561</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.007742350711306432</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.002105977697171425</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.003677140371788187</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.0003880697129385161</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.1496888401862124</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.0577155186099103</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>201207</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.003767156216784404</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.007780855852146149</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.002108585252719454</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.003696275723234606</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.0003883035805857967</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>0.003725249565827561</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.007742350711306432</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.002105977697171425</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.003677140371788187</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.0003880697129385161</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.2625447922510269</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.1705425960019301</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>201207</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.003774011943783199</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.007787067112526803</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.002110763953587128</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.003699278179158993</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.0003885097115356922</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>B6</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0.003725249565827561</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.007742350711306432</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.002105977697171425</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.003677140371788187</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.0003880697129385161</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.1685526780378239</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.0765745300688003</v>
+        <v>0.0908695026407999</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,19 +518,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003738643261235055</v>
+        <v>0.003739233088364244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007713298460153434</v>
+        <v>0.007713771018955469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002088521517010378</v>
+        <v>0.00208815570518581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003663482298378412</v>
+        <v>0.003663733992224545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003864278685440451</v>
+        <v>0.000386393261386031</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -553,10 +553,10 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1826945278783137</v>
+        <v>0.1826091574760936</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09076446608354739</v>
+        <v>0.09076378674752286</v>
       </c>
     </row>
     <row r="3">
@@ -565,23 +565,23 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003769909960995901</v>
+        <v>0.003739233088364244</v>
       </c>
       <c r="D3" t="n">
-        <v>0.007793352989302926</v>
+        <v>0.007713771018955469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002113201754037048</v>
+        <v>0.00208815570518581</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003702305540019583</v>
+        <v>0.003663733992224545</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003887404917641695</v>
+        <v>0.000386393261386031</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -589,25 +589,25 @@
         </is>
       </c>
       <c r="I3" t="n">
-        <v>0.003723787788712729</v>
+        <v>0.003720913787828295</v>
       </c>
       <c r="J3" t="n">
-        <v>0.007744018133863363</v>
+        <v>0.007734087273310928</v>
       </c>
       <c r="K3" t="n">
-        <v>0.002106521197767294</v>
+        <v>0.002102735184248351</v>
       </c>
       <c r="L3" t="n">
-        <v>0.003677948519669682</v>
+        <v>0.003673164546190823</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0003881208956607774</v>
+        <v>0.0003877641643389194</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1833394269032388</v>
+        <v>0.1828797011034304</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09076888152995703</v>
+        <v>0.09069364405873254</v>
       </c>
     </row>
     <row r="4">
@@ -616,23 +616,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.003771759255797842</v>
+        <v>0.003738643261235055</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00778260569127138</v>
+        <v>0.007713298460153434</v>
       </c>
       <c r="E4" t="n">
-        <v>0.002109276911031228</v>
+        <v>0.002088521517010378</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003697117852169486</v>
+        <v>0.003663482298378412</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003883691171730131</v>
+        <v>0.0003864278685440451</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -655,10 +655,10 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N4" t="n">
-        <v>0.1830362050065858</v>
+        <v>0.1826945278783137</v>
       </c>
       <c r="O4" t="n">
-        <v>0.09076680909892793</v>
+        <v>0.09076446608354739</v>
       </c>
     </row>
     <row r="5">
@@ -667,100 +667,100 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.003769909960995901</v>
+        <v>0.003738643261235055</v>
       </c>
       <c r="D5" t="n">
-        <v>0.007793352989302926</v>
+        <v>0.007713298460153434</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002113201754037048</v>
+        <v>0.002088521517010378</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003702305540019583</v>
+        <v>0.003663482298378412</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0003887404917641695</v>
+        <v>0.0003864278685440451</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0.003738643261235055</v>
+        <v>0.003720913787828295</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007713298460153434</v>
+        <v>0.007734087273310928</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002088521517010378</v>
+        <v>0.002102735184248351</v>
       </c>
       <c r="L5" t="n">
-        <v>0.003663482298378412</v>
+        <v>0.003673164546190823</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0003864278685440451</v>
+        <v>0.0003877641643389194</v>
       </c>
       <c r="N5" t="n">
-        <v>0.1829611512843659</v>
+        <v>0.1829650630797686</v>
       </c>
       <c r="O5" t="n">
-        <v>0.09078368741430208</v>
+        <v>0.09069431689379176</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>201205</v>
+        <v>201207</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.003771759255797842</v>
+        <v>0.00373918479043579</v>
       </c>
       <c r="D6" t="n">
-        <v>0.00778260569127138</v>
+        <v>0.007711495928810338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002109276911031228</v>
+        <v>0.002085802198631657</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003697117852169486</v>
+        <v>0.003662714003913901</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0003883691171730131</v>
+        <v>0.0003861730303119909</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>B6</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>0.003738643261235055</v>
+        <v>0.003725249565827561</v>
       </c>
       <c r="J6" t="n">
-        <v>0.007713298460153434</v>
+        <v>0.007742350711306432</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002088521517010378</v>
+        <v>0.002105977697171425</v>
       </c>
       <c r="L6" t="n">
-        <v>0.003663482298378412</v>
+        <v>0.003677140371788187</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0003864278685440451</v>
+        <v>0.0003880697129385161</v>
       </c>
       <c r="N6" t="n">
-        <v>0.1826902781350212</v>
+        <v>0.1824232964537167</v>
       </c>
       <c r="O6" t="n">
-        <v>0.09081304540795609</v>
+        <v>0.09080601590571159</v>
       </c>
     </row>
     <row r="7">
@@ -769,49 +769,916 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ATM</t>
+          <t>S2</t>
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1823989500562382</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.09080581298183776</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003769909960995901</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007793352989302926</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002113201754037048</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003702305540019583</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003887404917641695</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003723787788712729</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007744018133863363</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002106521197767294</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003677948519669682</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003881208956607774</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1833394269032388</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.09076888152995703</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003769909960995901</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007793352989302926</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002113201754037048</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003702305540019583</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003887404917641695</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003720913787828295</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007734087273310928</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002102735184248351</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003673164546190823</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0003877641643389194</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1836060773700326</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.09069827494716363</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.003723787788712729</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007744018133863363</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002106521197767294</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003677948519669682</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003881208956607774</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1830362050065858</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.09076680909892793</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003720913787828295</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007734087273310928</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002102735184248351</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003673164546190823</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0003877641643389194</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1833028773867317</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.09069621748200445</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D12" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E12" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F12" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G12" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1824047520954045</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0.09080549263438215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.003767156216784404</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.007780855852146149</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.002108585252719454</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.003696275723234606</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.0003883035805857967</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.1834953658609197</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.09081333996010488</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.003774011943783199</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.007787067112526803</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.002110763953587128</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.003699278179158993</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.0003885097115356922</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.1825874080828793</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.09080715936119879</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.003769909960995901</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.007793352989302926</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.002113201754037048</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.003702305540019583</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.0003887404917641695</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="I15" t="n">
+        <v>0.003739233088364244</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.007713771018955469</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.00208815570518581</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.003663733992224545</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.000386393261386031</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.182886119565302</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.09079223885947683</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.003769909960995901</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.007793352989302926</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.002113201754037048</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.003702305540019583</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.0003887404917641695</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.1829611512843659</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.09078368741430208</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>0.003739233088364244</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.007713771018955469</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.00208815570518581</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.003663733992224545</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.000386393261386031</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.1826152448674723</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.09082159706479563</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0.1826902781350212</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.09081304540795609</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.003775157024594888</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.007787727026405036</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.002108787100421698</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.003699702839221671</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.000388320234647194</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J19" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K19" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L19" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M19" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N19" t="n">
         <v>0.1821741353339218</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O19" t="n">
         <v>0.0908695026407999</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.003775157024594888</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.007787727026405036</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.002108787100421698</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.003699702839221671</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.000388320234647194</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.1821527448253449</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.09087194078298577</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.003767156216784404</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.007780855852146149</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.002108585252719454</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.003696275723234606</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.0003883035805857967</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>0.00373918479043579</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.007711495928810338</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.002085802198631657</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.003662714003913901</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.0003861730303119909</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.1831480486383229</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.09076395560935356</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.003767156216784404</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.007780855852146149</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.002108585252719454</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.003696275723234606</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.0003883035805857967</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.183126660185694</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.09076639394059735</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.003774011943783199</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.007787067112526803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.002110763953587128</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.003699278179158993</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.0003885097115356922</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>0.00373918479043579</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.007711495928810338</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.002085802198631657</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.003662714003913901</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.0003861730303119909</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.1823369396284753</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.09085186742092939</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.003774011943783199</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.007787067112526803</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.002110763953587128</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.003699278179158993</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.0003885097115356922</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.1823155494265338</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.09085430554016978</v>
       </c>
     </row>
   </sheetData>
@@ -825,7 +1692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,19 +1787,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.003738643261235055</v>
+        <v>0.003739233088364244</v>
       </c>
       <c r="D2" t="n">
-        <v>0.007713298460153434</v>
+        <v>0.007713771018955469</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002088521517010378</v>
+        <v>0.00208815570518581</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003663482298378412</v>
+        <v>0.003663733992224545</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003864278685440451</v>
+        <v>0.000386393261386031</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -955,10 +1822,265 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N2" t="n">
+        <v>0.1826091574760936</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.09076378674752286</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0.003739233088364244</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.007713771018955469</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00208815570518581</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003663733992224545</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.000386393261386031</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003720913787828295</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007734087273310928</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002102735184248351</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003673164546190823</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0003877641643389194</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1828797011034304</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.09069364405873254</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003723787788712729</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007744018133863363</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.002106521197767294</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003677948519669682</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.0003881208956607774</v>
+      </c>
+      <c r="N4" t="n">
         <v>0.1826945278783137</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O4" t="n">
         <v>0.09076446608354739</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003720913787828295</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007734087273310928</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002102735184248351</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003673164546190823</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0003877641643389194</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1829650630797686</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.09069431689379176</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.00373918479043579</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007711495928810338</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002085802198631657</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003662714003913901</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.0003861730303119909</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1824232964537167</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.09080601590571159</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1823989500562382</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.09080581298183776</v>
       </c>
     </row>
   </sheetData>
@@ -972,7 +2094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1118,45 +2240,300 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0.003769909960995901</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.007793352989302926</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.002113201754037048</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.003702305540019583</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.0003887404917641695</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.003720913787828295</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.007734087273310928</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.002102735184248351</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.003673164546190823</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.0003877641643389194</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.1836060773700326</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.09069827494716363</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E4" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>B6</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="I4" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L4" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M4" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N4" t="n">
         <v>0.1830362050065858</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O4" t="n">
         <v>0.09076680909892793</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003720913787828295</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007734087273310928</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002102735184248351</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003673164546190823</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0003877641643389194</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1833028773867317</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.09069621748200445</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.003775157024594888</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.007787727026405036</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.002108787100421698</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.003699702839221671</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.000388320234647194</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.1824047520954045</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.09080549263438215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003767156216784404</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007780855852146149</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002108585252719454</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003696275723234606</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.0003883035805857967</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1834953658609197</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.09081333996010488</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003774011943783199</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007787067112526803</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002110763953587128</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003699278179158993</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003885097115356922</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.003725249565827561</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007742350711306432</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002105977697171425</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003677140371788187</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003880697129385161</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1825874080828793</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.09080715936119879</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +2547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,25 +2662,25 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.003738643261235055</v>
+        <v>0.003739233088364244</v>
       </c>
       <c r="J2" t="n">
-        <v>0.007713298460153434</v>
+        <v>0.007713771018955469</v>
       </c>
       <c r="K2" t="n">
-        <v>0.002088521517010378</v>
+        <v>0.00208815570518581</v>
       </c>
       <c r="L2" t="n">
-        <v>0.003663482298378412</v>
+        <v>0.003663733992224545</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0003864278685440451</v>
+        <v>0.000386393261386031</v>
       </c>
       <c r="N2" t="n">
-        <v>0.1829611512843659</v>
+        <v>0.182886119565302</v>
       </c>
       <c r="O2" t="n">
-        <v>0.09078368741430208</v>
+        <v>0.09079223885947683</v>
       </c>
     </row>
     <row r="3">
@@ -1316,19 +2693,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.003771759255797842</v>
+        <v>0.003769909960995901</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00778260569127138</v>
+        <v>0.007793352989302926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.002109276911031228</v>
+        <v>0.002113201754037048</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003697117852169486</v>
+        <v>0.003702305540019583</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003883691171730131</v>
+        <v>0.0003887404917641695</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -1351,61 +2728,418 @@
         <v>0.0003864278685440451</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1826902781350212</v>
+        <v>0.1829611512843659</v>
       </c>
       <c r="O3" t="n">
-        <v>0.09081304540795609</v>
+        <v>0.09078368741430208</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.003739233088364244</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.007713771018955469</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.00208815570518581</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.003663733992224545</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.000386393261386031</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.1826152448674723</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.09082159706479563</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>201205</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.003771759255797842</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.00778260569127138</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.002109276911031228</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.003697117852169486</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.0003883691171730131</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.003738643261235055</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.007713298460153434</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.002088521517010378</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.003663482298378412</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.0003864278685440451</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.1826902781350212</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.09081304540795609</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ATM</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D6" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E6" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F6" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G6" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>S2</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="I6" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J6" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K6" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L6" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M6" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N6" t="n">
         <v>0.1821741353339218</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O6" t="n">
         <v>0.0908695026407999</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>0.003775157024594888</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.007787727026405036</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.002108787100421698</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.003699702839221671</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.000388320234647194</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.1821527448253449</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.09087194078298577</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>0.003767156216784404</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.007780855852146149</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.002108585252719454</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.003696275723234606</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.0003883035805857967</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.00373918479043579</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.007711495928810338</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.002085802198631657</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.003662714003913901</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.0003861730303119909</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.1831480486383229</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.09076395560935356</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>0.003767156216784404</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.007780855852146149</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.002108585252719454</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.003696275723234606</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.0003883035805857967</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.183126660185694</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.09076639394059735</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>0.003774011943783199</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.007787067112526803</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.002110763953587128</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.003699278179158993</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.0003885097115356922</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>0.00373918479043579</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.007711495928810338</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.002085802198631657</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.003662714003913901</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.0003861730303119909</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1823369396284753</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.09085186742092939</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>201207</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>0.003774011943783199</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.007787067112526803</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.002110763953587128</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.003699278179158993</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.0003885097115356922</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>0.003739541106399988</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.007710852308599518</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.002087697164321905</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.003662306506347789</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.0003863513375294824</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1823155494265338</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.09085430554016978</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,6 +507,16 @@
           <t>kappa</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -558,6 +568,12 @@
       <c r="O2" t="n">
         <v>0.09076378674752286</v>
       </c>
+      <c r="P2" t="n">
+        <v>-0.4091049258002633</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4091049258002633</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -609,6 +625,12 @@
       <c r="O3" t="n">
         <v>0.09069364405873254</v>
       </c>
+      <c r="P3" t="n">
+        <v>-0.7444554516042867</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.7444554516042867</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -660,6 +682,12 @@
       <c r="O4" t="n">
         <v>0.09076446608354739</v>
       </c>
+      <c r="P4" t="n">
+        <v>-0.3258536615019514</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.3258536615019514</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +739,12 @@
       <c r="O5" t="n">
         <v>0.09069431689379176</v>
       </c>
+      <c r="P5" t="n">
+        <v>-0.661254864741001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.661254864741001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -762,6 +796,12 @@
       <c r="O6" t="n">
         <v>0.09080601590571159</v>
       </c>
+      <c r="P6" t="n">
+        <v>-0.2304847950564959</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2304847950564959</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -813,6 +853,12 @@
       <c r="O7" t="n">
         <v>0.09080581298183776</v>
       </c>
+      <c r="P7" t="n">
+        <v>-0.2542075049479786</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.2542075049479786</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -864,6 +910,12 @@
       <c r="O8" t="n">
         <v>0.09076888152995703</v>
       </c>
+      <c r="P8" t="n">
+        <v>0.3000358365834455</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3000358365834455</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -915,6 +967,12 @@
       <c r="O9" t="n">
         <v>0.09069827494716363</v>
       </c>
+      <c r="P9" t="n">
+        <v>-0.03250962188272588</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>-0.03250962188272588</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -966,6 +1024,12 @@
       <c r="O10" t="n">
         <v>0.09076680909892793</v>
       </c>
+      <c r="P10" t="n">
+        <v>0.009129185265965845</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.009129185265965845</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1017,6 +1081,12 @@
       <c r="O11" t="n">
         <v>0.09069621748200445</v>
       </c>
+      <c r="P11" t="n">
+        <v>-0.3232611217129921</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>-0.3232611217129921</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1068,6 +1138,12 @@
       <c r="O12" t="n">
         <v>0.09080549263438215</v>
       </c>
+      <c r="P12" t="n">
+        <v>-0.2421222941543233</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>-0.2421222941543233</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1119,6 +1195,12 @@
       <c r="O13" t="n">
         <v>0.09081333996010488</v>
       </c>
+      <c r="P13" t="n">
+        <v>0.804003732371994</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0.804003732371994</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1170,6 +1252,12 @@
       <c r="O14" t="n">
         <v>0.09080715936119879</v>
       </c>
+      <c r="P14" t="n">
+        <v>-0.06757790660705254</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>-0.06757790660705254</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1221,6 +1309,12 @@
       <c r="O15" t="n">
         <v>0.09079223885947683</v>
       </c>
+      <c r="P15" t="n">
+        <v>0.7714581516891084</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0.7714581516891084</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1272,6 +1366,12 @@
       <c r="O16" t="n">
         <v>0.09078368741430208</v>
       </c>
+      <c r="P16" t="n">
+        <v>0.68887662279149</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0.68887662279149</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1323,6 +1423,12 @@
       <c r="O17" t="n">
         <v>0.09082159706479563</v>
       </c>
+      <c r="P17" t="n">
+        <v>0.4788328094882388</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0.4788328094882388</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1374,6 +1480,12 @@
       <c r="O18" t="n">
         <v>0.09081304540795609</v>
       </c>
+      <c r="P18" t="n">
+        <v>0.3962898487157585</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.3962898487157585</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1425,6 +1537,12 @@
       <c r="O19" t="n">
         <v>0.0908695026407999</v>
       </c>
+      <c r="P19" t="n">
+        <v>0.04794438160171666</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.04794438160171666</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1476,6 +1594,12 @@
       <c r="O20" t="n">
         <v>0.09087194078298577</v>
       </c>
+      <c r="P20" t="n">
+        <v>0.07145489776094749</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0.07145489776094749</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1527,6 +1651,12 @@
       <c r="O21" t="n">
         <v>0.09076395560935356</v>
       </c>
+      <c r="P21" t="n">
+        <v>1.100060574029005</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.100060574029005</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1578,6 +1708,12 @@
       <c r="O22" t="n">
         <v>0.09076639394059735</v>
       </c>
+      <c r="P22" t="n">
+        <v>1.123618980839014</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.123618980839014</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1629,6 +1765,12 @@
       <c r="O23" t="n">
         <v>0.09085186742092939</v>
       </c>
+      <c r="P23" t="n">
+        <v>0.2234770376519091</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.2234770376519091</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1679,6 +1821,12 @@
       </c>
       <c r="O24" t="n">
         <v>0.09085430554016978</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.2469943301994793</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0.2469943301994793</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1840,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:Q7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1776,6 +1924,16 @@
           <t>kappa</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1827,6 +1985,12 @@
       <c r="O2" t="n">
         <v>0.09076378674752286</v>
       </c>
+      <c r="P2" t="n">
+        <v>-0.4091049258002633</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>-0.4091049258002633</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1878,6 +2042,12 @@
       <c r="O3" t="n">
         <v>0.09069364405873254</v>
       </c>
+      <c r="P3" t="n">
+        <v>-0.7444554516042867</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.7444554516042867</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1929,6 +2099,12 @@
       <c r="O4" t="n">
         <v>0.09076446608354739</v>
       </c>
+      <c r="P4" t="n">
+        <v>-0.3258536615019514</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>-0.3258536615019514</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1980,6 +2156,12 @@
       <c r="O5" t="n">
         <v>0.09069431689379176</v>
       </c>
+      <c r="P5" t="n">
+        <v>-0.661254864741001</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.661254864741001</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2031,6 +2213,12 @@
       <c r="O6" t="n">
         <v>0.09080601590571159</v>
       </c>
+      <c r="P6" t="n">
+        <v>-0.2304847950564959</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2304847950564959</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2081,6 +2269,12 @@
       </c>
       <c r="O7" t="n">
         <v>0.09080581298183776</v>
+      </c>
+      <c r="P7" t="n">
+        <v>-0.2542075049479786</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>-0.2542075049479786</v>
       </c>
     </row>
   </sheetData>
@@ -2094,7 +2288,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2178,6 +2372,16 @@
           <t>kappa</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2229,6 +2433,12 @@
       <c r="O2" t="n">
         <v>0.09076888152995703</v>
       </c>
+      <c r="P2" t="n">
+        <v>0.3000358365834455</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.3000358365834455</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2280,6 +2490,12 @@
       <c r="O3" t="n">
         <v>0.09069827494716363</v>
       </c>
+      <c r="P3" t="n">
+        <v>-0.03250962188272588</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>-0.03250962188272588</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2331,6 +2547,12 @@
       <c r="O4" t="n">
         <v>0.09076680909892793</v>
       </c>
+      <c r="P4" t="n">
+        <v>0.009129185265965845</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.009129185265965845</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2382,6 +2604,12 @@
       <c r="O5" t="n">
         <v>0.09069621748200445</v>
       </c>
+      <c r="P5" t="n">
+        <v>-0.3232611217129921</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>-0.3232611217129921</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2433,6 +2661,12 @@
       <c r="O6" t="n">
         <v>0.09080549263438215</v>
       </c>
+      <c r="P6" t="n">
+        <v>-0.2421222941543233</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>-0.2421222941543233</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2484,6 +2718,12 @@
       <c r="O7" t="n">
         <v>0.09081333996010488</v>
       </c>
+      <c r="P7" t="n">
+        <v>0.804003732371994</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.804003732371994</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2534,6 +2774,12 @@
       </c>
       <c r="O8" t="n">
         <v>0.09080715936119879</v>
+      </c>
+      <c r="P8" t="n">
+        <v>-0.06757790660705254</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>-0.06757790660705254</v>
       </c>
     </row>
   </sheetData>
@@ -2547,7 +2793,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2631,6 +2877,16 @@
           <t>kappa</t>
         </is>
       </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -2682,6 +2938,12 @@
       <c r="O2" t="n">
         <v>0.09079223885947683</v>
       </c>
+      <c r="P2" t="n">
+        <v>0.7714581516891084</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.7714581516891084</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -2733,6 +2995,12 @@
       <c r="O3" t="n">
         <v>0.09078368741430208</v>
       </c>
+      <c r="P3" t="n">
+        <v>0.68887662279149</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.68887662279149</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -2784,6 +3052,12 @@
       <c r="O4" t="n">
         <v>0.09082159706479563</v>
       </c>
+      <c r="P4" t="n">
+        <v>0.4788328094882388</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.4788328094882388</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -2835,6 +3109,12 @@
       <c r="O5" t="n">
         <v>0.09081304540795609</v>
       </c>
+      <c r="P5" t="n">
+        <v>0.3962898487157585</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3962898487157585</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -2886,6 +3166,12 @@
       <c r="O6" t="n">
         <v>0.0908695026407999</v>
       </c>
+      <c r="P6" t="n">
+        <v>0.04794438160171666</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.04794438160171666</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -2937,6 +3223,12 @@
       <c r="O7" t="n">
         <v>0.09087194078298577</v>
       </c>
+      <c r="P7" t="n">
+        <v>0.07145489776094749</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.07145489776094749</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2988,6 +3280,12 @@
       <c r="O8" t="n">
         <v>0.09076395560935356</v>
       </c>
+      <c r="P8" t="n">
+        <v>1.100060574029005</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.100060574029005</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -3039,6 +3337,12 @@
       <c r="O9" t="n">
         <v>0.09076639394059735</v>
       </c>
+      <c r="P9" t="n">
+        <v>1.123618980839014</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.123618980839014</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -3090,6 +3394,12 @@
       <c r="O10" t="n">
         <v>0.09085186742092939</v>
       </c>
+      <c r="P10" t="n">
+        <v>0.2234770376519091</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.2234770376519091</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -3140,6 +3450,12 @@
       </c>
       <c r="O11" t="n">
         <v>0.09085430554016978</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2469943301994793</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.2469943301994793</v>
       </c>
     </row>
   </sheetData>

--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -1,108 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="S2-B6" sheetId="2" r:id="rId2"/>
-    <sheet name="ATM-B6" sheetId="3" r:id="rId3"/>
-    <sheet name="ATM-S2" sheetId="4" r:id="rId4"/>
+    <sheet name="all" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="S2-B6" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ATM-B6" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ATM-S2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="20">
-  <si>
-    <t>ref_tag_1</t>
-  </si>
-  <si>
-    <t>size corrected 31R_1</t>
-  </si>
-  <si>
-    <t>size corrected 45R_1</t>
-  </si>
-  <si>
-    <t>size corrected 46R_1</t>
-  </si>
-  <si>
-    <t>15Rbulk_1</t>
-  </si>
-  <si>
-    <t>17R_1</t>
-  </si>
-  <si>
-    <t>ref_tag_2</t>
-  </si>
-  <si>
-    <t>size corrected 31R_2</t>
-  </si>
-  <si>
-    <t>size corrected 45R_2</t>
-  </si>
-  <si>
-    <t>size corrected 46R_2</t>
-  </si>
-  <si>
-    <t>15Rbulk_2</t>
-  </si>
-  <si>
-    <t>17R_2</t>
-  </si>
-  <si>
-    <t>gamma</t>
-  </si>
-  <si>
-    <t>kappa</t>
-  </si>
-  <si>
-    <t>error31r_ref1_permil</t>
-  </si>
-  <si>
-    <t>error31r_ref2_permil</t>
-  </si>
-  <si>
-    <t>S2</t>
-  </si>
-  <si>
-    <t>ATM</t>
-  </si>
-  <si>
-    <t>B6</t>
-  </si>
-  <si>
-    <t>run_date</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -117,35 +49,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -433,2700 +423,3042 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.1826091574760936</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>0.09076378674752286</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>-0.4091049258002633</v>
       </c>
-      <c r="Q2">
-        <v>-0.4091049258002633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="Q2" t="n">
+        <v>0.5408271791245145</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.1828797011034304</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>0.09069364405873254</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>-0.7444554516042867</v>
       </c>
-      <c r="Q3">
-        <v>-0.7444554516042867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
+      <c r="Q3" t="n">
+        <v>0.8814894430904108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.1826945278783137</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>0.09076446608354739</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>-0.3258536615019514</v>
       </c>
-      <c r="Q4">
-        <v>-0.3258536615019514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="Q4" t="n">
+        <v>0.4573018187863376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.1829650630797686</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>0.09069431689379176</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>-0.661254864741001</v>
       </c>
-      <c r="Q5">
-        <v>-0.661254864741001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
+      <c r="Q5" t="n">
+        <v>0.7979016752348578</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>0.1824232964537167</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>0.09080601590571159</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>-0.2304847950564959</v>
       </c>
-      <c r="Q6">
-        <v>-0.2304847950564959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
+      <c r="Q6" t="n">
+        <v>0.3593522578062558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>0.1823989500562382</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>0.09080581298183776</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>-0.2542075049479786</v>
       </c>
-      <c r="Q7">
-        <v>-0.2542075049479786</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
+      <c r="Q7" t="n">
+        <v>0.3831541189642795</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>0.1833394269032388</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>0.09076888152995703</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>0.3000358365834455</v>
       </c>
-      <c r="Q8">
-        <v>0.3000358365834455</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
+      <c r="Q8" t="n">
+        <v>-0.1743645130379834</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H9" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>0.1836060773700326</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>0.09069827494716363</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>-0.03250962188272588</v>
       </c>
-      <c r="Q9">
-        <v>-0.03250962188272588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
+      <c r="Q9" t="n">
+        <v>0.1691316704968138</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H10" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>0.1830362050065858</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>0.09076680909892793</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>0.009129185265965845</v>
       </c>
-      <c r="Q10">
-        <v>0.009129185265965845</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
+      <c r="Q10" t="n">
+        <v>0.1226387966208886</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>0.1833028773867317</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>0.09069621748200445</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>-0.3232611217129921</v>
       </c>
-      <c r="Q11">
-        <v>-0.3232611217129921</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1">
+      <c r="Q11" t="n">
+        <v>0.4663567956522119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12">
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>0.1824047520954045</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>0.09080549263438215</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>-0.2421222941543233</v>
       </c>
-      <c r="Q12">
-        <v>-0.2421222941543233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1">
+      <c r="Q12" t="n">
+        <v>0.3771182654188632</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
         <v>0.003767156216784404</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>0.007780855852146149</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>0.002108585252719454</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>0.003696275723234606</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>0.0003883035805857967</v>
       </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13">
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>0.1834953658609197</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>0.09081333996010488</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>0.804003732371994</v>
       </c>
-      <c r="Q13">
-        <v>0.804003732371994</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1">
+      <c r="Q13" t="n">
+        <v>-0.6903239553763818</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>0.003774011943783199</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>0.007787067112526803</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>0.002110763953587128</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>0.003699278179158993</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>0.0003885097115356922</v>
       </c>
-      <c r="H14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I14" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>0.1825874080828793</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>0.09080715936119879</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>-0.06757790660705254</v>
       </c>
-      <c r="Q14">
-        <v>-0.06757790660705254</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="1">
+      <c r="Q14" t="n">
+        <v>0.1986900172268324</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D15">
+      <c r="D15" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F15">
+      <c r="F15" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G15">
+      <c r="G15" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15">
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>0.182886119565302</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>0.09079223885947683</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>0.7714581516891084</v>
       </c>
-      <c r="Q15">
-        <v>0.7714581516891084</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1">
+      <c r="Q15" t="n">
+        <v>-0.6551638924620073</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16">
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>0.1829611512843659</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>0.09078368741430208</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>0.68887662279149</v>
       </c>
-      <c r="Q16">
-        <v>0.68887662279149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1">
+      <c r="Q16" t="n">
+        <v>-0.5706893435657445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17">
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>0.1826152448674723</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>0.09082159706479563</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>0.4788328094882388</v>
       </c>
-      <c r="Q17">
-        <v>0.4788328094882388</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1">
+      <c r="Q17" t="n">
+        <v>-0.3590456112392282</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18">
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>0.1826902781350212</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>0.09081304540795609</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>0.3962898487157585</v>
       </c>
-      <c r="Q18">
-        <v>0.3962898487157585</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1">
+      <c r="Q18" t="n">
+        <v>-0.2745262627856793</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19">
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>0.1821741353339218</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>0.0908695026407999</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>0.04794438160171666</v>
       </c>
-      <c r="Q19">
-        <v>0.04794438160171666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1">
+      <c r="Q19" t="n">
+        <v>0.07728761883818436</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H20" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20">
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>0.1821527448253449</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>0.09087194078298577</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>0.07145489776094749</v>
       </c>
-      <c r="Q20">
-        <v>0.07145489776094749</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1">
+      <c r="Q20" t="n">
+        <v>0.05317679791572161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>0.003767156216784404</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>0.007780855852146149</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>0.002108585252719454</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>0.003696275723234606</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>0.0003883035805857967</v>
       </c>
-      <c r="H21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21">
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>0.1831480486383229</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>0.09076395560935356</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>1.100060574029005</v>
       </c>
-      <c r="Q21">
-        <v>1.100060574029005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1">
+      <c r="Q21" t="n">
+        <v>-0.9873936350520696</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>0.003767156216784404</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>0.007780855852146149</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>0.002108585252719454</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>0.003696275723234606</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>0.0003883035805857967</v>
       </c>
-      <c r="H22" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22">
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>0.183126660185694</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>0.09076639394059735</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>1.123618980839014</v>
       </c>
-      <c r="Q22">
-        <v>1.123618980839014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="1">
+      <c r="Q22" t="n">
+        <v>-1.011405043931934</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>0.003774011943783199</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>0.007787067112526803</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>0.002110763953587128</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>0.003699278179158993</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>0.0003885097115356922</v>
       </c>
-      <c r="H23" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>0.1823369396284753</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>0.09085186742092939</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>0.2234770376519091</v>
       </c>
-      <c r="Q23">
-        <v>0.2234770376519091</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="A24" s="1">
+      <c r="Q23" t="n">
+        <v>-0.100682194205004</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>0.003774011943783199</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>0.007787067112526803</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>0.002110763953587128</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>0.003699278179158993</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>0.0003885097115356922</v>
       </c>
-      <c r="H24" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>0.1823155494265338</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>0.09085430554016978</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>0.2469943301994793</v>
       </c>
-      <c r="Q24">
-        <v>0.2469943301994793</v>
+      <c r="Q24" t="n">
+        <v>-0.1247764139455931</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.1826091574760936</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>0.09076378674752286</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>-0.4091049258002633</v>
       </c>
-      <c r="Q2">
-        <v>-0.4091049258002633</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="Q2" t="n">
+        <v>0.5408271791245145</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.1828797011034304</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>0.09069364405873254</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>-0.7444554516042867</v>
       </c>
-      <c r="Q3">
-        <v>-0.7444554516042867</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
+      <c r="Q3" t="n">
+        <v>0.8814894430904108</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.1826945278783137</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>0.09076446608354739</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>-0.3258536615019514</v>
       </c>
-      <c r="Q4">
-        <v>-0.3258536615019514</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="Q4" t="n">
+        <v>0.4573018187863376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.1829650630797686</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>0.09069431689379176</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>-0.661254864741001</v>
       </c>
-      <c r="Q5">
-        <v>-0.661254864741001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
+      <c r="Q5" t="n">
+        <v>0.7979016752348578</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>0.1824232964537167</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>0.09080601590571159</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>-0.2304847950564959</v>
       </c>
-      <c r="Q6">
-        <v>-0.2304847950564959</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
+      <c r="Q6" t="n">
+        <v>0.3593522578062558</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>0.1823989500562382</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>0.09080581298183776</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>-0.2542075049479786</v>
       </c>
-      <c r="Q7">
-        <v>-0.2542075049479786</v>
+      <c r="Q7" t="n">
+        <v>0.3831541189642795</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.1833394269032388</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>0.09076888152995703</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>0.3000358365834455</v>
       </c>
-      <c r="Q2">
-        <v>0.3000358365834455</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="Q2" t="n">
+        <v>-0.1743645130379834</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.1836060773700326</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>0.09069827494716363</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>-0.03250962188272588</v>
       </c>
-      <c r="Q3">
-        <v>-0.03250962188272588</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
+      <c r="Q3" t="n">
+        <v>0.1691316704968138</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0.003723787788712729</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.007744018133863363</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.002106521197767294</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>0.003677948519669682</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>0.0003881208956607774</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.1830362050065858</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>0.09076680909892793</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>0.009129185265965845</v>
       </c>
-      <c r="Q4">
-        <v>0.009129185265965845</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="Q4" t="n">
+        <v>0.1226387966208886</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0.003720913787828295</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.007734087273310928</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.002102735184248351</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>0.003673164546190823</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>0.0003877641643389194</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.1833028773867317</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>0.09069621748200445</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>-0.3232611217129921</v>
       </c>
-      <c r="Q5">
-        <v>-0.3232611217129921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
+      <c r="Q5" t="n">
+        <v>0.4663567956522119</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>0.1824047520954045</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>0.09080549263438215</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>-0.2421222941543233</v>
       </c>
-      <c r="Q6">
-        <v>-0.2421222941543233</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
+      <c r="Q6" t="n">
+        <v>0.3771182654188632</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.003767156216784404</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.007780855852146149</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.002108585252719454</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.003696275723234606</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.0003883035805857967</v>
       </c>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>0.1834953658609197</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>0.09081333996010488</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>0.804003732371994</v>
       </c>
-      <c r="Q7">
-        <v>0.804003732371994</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
+      <c r="Q7" t="n">
+        <v>-0.6903239553763818</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.003774011943783199</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.007787067112526803</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.002110763953587128</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.003699278179158993</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.0003885097115356922</v>
       </c>
-      <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0.003725249565827561</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.007742350711306432</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.002105977697171425</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>0.003677140371788187</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>0.0003880697129385161</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>0.1825874080828793</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>0.09080715936119879</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>-0.06757790660705254</v>
       </c>
-      <c r="Q8">
-        <v>-0.06757790660705254</v>
+      <c r="Q8" t="n">
+        <v>0.1986900172268324</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
-      <c r="A2" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>run_date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17R_1</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>ref_tag_2</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 31R_2</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 45R_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>size corrected 46R_2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>15Rbulk_2</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17R_2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>kappa</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref1_permil</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>error31r_ref2_permil</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2">
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>0.182886119565302</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>0.09079223885947683</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>0.7714581516891084</v>
       </c>
-      <c r="Q2">
-        <v>0.7714581516891084</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
-      <c r="A3" s="1">
+      <c r="Q2" t="n">
+        <v>-0.6551638924620073</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>0.003769909960995901</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>0.007793352989302926</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>0.002113201754037048</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>0.003702305540019583</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>0.0003887404917641695</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3">
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>0.1829611512843659</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>0.09078368741430208</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>0.68887662279149</v>
       </c>
-      <c r="Q3">
-        <v>0.68887662279149</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="1">
+      <c r="Q3" t="n">
+        <v>-0.5706893435657445</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4">
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
         <v>0.003739233088364244</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>0.007713771018955469</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.00208815570518581</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>0.003663733992224545</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>0.000386393261386031</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>0.1826152448674723</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>0.09082159706479563</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>0.4788328094882388</v>
       </c>
-      <c r="Q4">
-        <v>0.4788328094882388</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="1">
+      <c r="Q4" t="n">
+        <v>-0.3590456112392282</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
         <v>201205</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>0.003771759255797842</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>0.00778260569127138</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>0.002109276911031228</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>0.003697117852169486</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>0.0003883691171730131</v>
       </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5">
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
         <v>0.003738643261235055</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>0.007713298460153434</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>0.002088521517010378</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>0.003663482298378412</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>0.0003864278685440451</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>0.1826902781350212</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>0.09081304540795609</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>0.3962898487157585</v>
       </c>
-      <c r="Q5">
-        <v>0.3962898487157585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1">
+      <c r="Q5" t="n">
+        <v>-0.2745262627856793</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6">
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>0.1821741353339218</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>0.0908695026407999</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>0.04794438160171666</v>
       </c>
-      <c r="Q6">
-        <v>0.04794438160171666</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1">
+      <c r="Q6" t="n">
+        <v>0.07728761883818436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>0.003775157024594888</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>0.007787727026405036</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>0.002108787100421698</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>0.003699702839221671</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>0.000388320234647194</v>
       </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7">
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>0.1821527448253449</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>0.09087194078298577</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>0.07145489776094749</v>
       </c>
-      <c r="Q7">
-        <v>0.07145489776094749</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1">
+      <c r="Q7" t="n">
+        <v>0.05317679791572161</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>0.003767156216784404</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>0.007780855852146149</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>0.002108585252719454</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>0.003696275723234606</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>0.0003883035805857967</v>
       </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>0.1831480486383229</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>0.09076395560935356</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>1.100060574029005</v>
       </c>
-      <c r="Q8">
-        <v>1.100060574029005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1">
+      <c r="Q8" t="n">
+        <v>-0.9873936350520696</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>0.003767156216784404</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>0.007780855852146149</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>0.002108585252719454</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>0.003696275723234606</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>0.0003883035805857967</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9">
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>0.183126660185694</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>0.09076639394059735</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>1.123618980839014</v>
       </c>
-      <c r="Q9">
-        <v>1.123618980839014</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1">
+      <c r="Q9" t="n">
+        <v>-1.011405043931934</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
         <v>0.003774011943783199</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>0.007787067112526803</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>0.002110763953587128</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>0.003699278179158993</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>0.0003885097115356922</v>
       </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10">
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0.00373918479043579</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>0.007711495928810338</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>0.002085802198631657</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>0.003662714003913901</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>0.0003861730303119909</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>0.1823369396284753</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>0.09085186742092939</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>0.2234770376519091</v>
       </c>
-      <c r="Q10">
-        <v>0.2234770376519091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1">
+      <c r="Q10" t="n">
+        <v>-0.100682194205004</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>201207</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>ATM</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>0.003774011943783199</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>0.007787067112526803</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>0.002110763953587128</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>0.003699278179158993</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>0.0003885097115356922</v>
       </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11">
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0.003739541106399988</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>0.007710852308599518</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>0.002087697164321905</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>0.003662306506347789</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>0.0003863513375294824</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>0.1823155494265338</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>0.09085430554016978</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>0.2469943301994793</v>
       </c>
-      <c r="Q11">
-        <v>0.2469943301994793</v>
+      <c r="Q11" t="n">
+        <v>-0.1247764139455931</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/src/example_scrambling_output.xlsx
+++ b/src/example_scrambling_output.xlsx
@@ -955,7 +955,7 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N10">
-        <v>0.1830362050065858</v>
+        <v>0.1830362050065857</v>
       </c>
       <c r="O10">
         <v>0.09076680909892793</v>
@@ -964,7 +964,7 @@
         <v>0.009129185265965845</v>
       </c>
       <c r="Q10">
-        <v>0.1226387966208886</v>
+        <v>0.1226387966211107</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2306,7 +2306,7 @@
         <v>0.0003881208956607774</v>
       </c>
       <c r="N4">
-        <v>0.1830362050065858</v>
+        <v>0.1830362050065857</v>
       </c>
       <c r="O4">
         <v>0.09076680909892793</v>
@@ -2315,7 +2315,7 @@
         <v>0.009129185265965845</v>
       </c>
       <c r="Q4">
-        <v>0.1226387966208886</v>
+        <v>0.1226387966211107</v>
       </c>
     </row>
     <row r="5" spans="1:17">
